--- a/src/resources/excel-model/单位问卷—企业—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—企业—打印版.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LY\项目\2019下半年人才流失情况专项调研\问卷\AAAAA\问卷打印版\企业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LY\Desktop\调查表-打印版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79DA1E-137B-4A48-8A4B-6CB1E7554424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E74E6D-B93B-406D-8A2B-85C555DEC906}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
     <sheet name="存量" sheetId="8" r:id="rId2"/>
     <sheet name="流入" sheetId="9" r:id="rId3"/>
     <sheet name="流出" sheetId="17" r:id="rId4"/>
-    <sheet name="流失人才、增量" sheetId="12" r:id="rId5"/>
+    <sheet name="流失人才" sheetId="12" r:id="rId5"/>
+    <sheet name="增量" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="189">
   <si>
     <t>学历结构</t>
   </si>
@@ -207,9 +208,6 @@
   <si>
     <t>流出人数</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作经验（年)</t>
   </si>
   <si>
     <t>序号</t>
@@ -1668,1104 +1666,55 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为做好全省人才情况调研工作，全面掌握我省人才规模结构、流失和需求情况，特开发单位人才统计平台。具体操作说明如下：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">一、单位账号注册
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请登录网址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>***************</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，通过管理人员身份证号，注册单位管理账号。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">二、账号登录及统计模块
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台调查表包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位基本信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才情况汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才流动汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才需求调查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个模块。其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才流动汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包括</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流入情况统计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流出情况统计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流出人才信息统计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位基本信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才需求调查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">个模块，仅需填写当前状态。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才情况汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位人才流动汇总</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个模块，需要对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2009-2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">年十年期间的各年度数据进行填写。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">三、主要指标说明
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">所属行业：所属行业：依据《国民经济行业分类》分别为农、林、牧、渔业，采矿业，制造业，电力、热力、燃气及水的生产和供应业，建筑业，批发和零售业，交通运输、仓储和邮政业，住宿和餐饮业，信息传输、软件和信息技术服务业，金融业，房地产业，租赁和商务服务业，科学研究和技术服务业，水利、环境和公共设施管理业，居民服务、修理和其他服务业，教育，卫生和社会工作，文化、体育和娱乐业，公共管理、社会保障和社会组织，并对应下设的细分类。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所属地域：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">个地市、农垦、森工。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人员类别：按照单位性质</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>事业单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”“社会团体”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>及其他性质划分为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">种问卷，主要差别在管理人员项目中。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位流失人才信息表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>离职时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">写清年份和月份即可。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位流失人才信息表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从业年限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为在本单位工作年限。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单位流失人才信息表中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流入地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">为流失人员的去向，即到哪座城市参加工作或流向哪座城市。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">四、系统运行说明
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">请使用最新版本浏览器登陆（再具体）。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">调查平台对相关信息自动校验，请准确填写。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>谢谢您在百忙之中抽出时间填写问卷，调查内容将严格保密，且不涉及税务、社保等问题，请您放心作答！</t>
-    </r>
+    <t>人才层次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领军人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高精尖人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>急需紧缺人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后备人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般性人才</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经验(年)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    为做好全省人才情况调研工作，全面掌握我省人才规模结构、流失和需求情况，特开发单位人才统计平台。具体操作说明如下：
+    一、单位账号注册
+    请登录网址https://talent.hrbust.edu.cn，通过下发的唯一账号登录。
+    二、账号登录及统计模块
+    1.平台调查表包括“单位基本信息”、“单位人才情况汇总”、“单位人才流动汇总”和“单位人才需求调查”4个模块。其中“单位人才流动汇总”包括“流入情况统计”、“流出情况统计”、“流出人才信息统计”。
+    2.“单位基本信息”和“单位人才需求调查”2个模块，仅需填写当前状态。
+    3.“单位人才情况汇总”和“单位人才流动汇总”2个模块，需要对2009-2018年十年期间的各年度数据进行填写。
+    三、主要指标说明
+    1.所属行业：所属行业：依据《国民经济行业分类》分别为农、林、牧、渔业，采矿业，制造业，电力、热力、燃气及水的生产和供应业，建筑业，批发和零售业，交通运输、仓储和邮政业，住宿和餐饮业，信息传输、软件和信息技术服务业，金融业，房地产业，租赁和商务服务业，科学研究和技术服务业，水利、环境和公共设施管理业，居民服务、修理和其他服务业，教育，卫生和社会工作，文化、体育和娱乐业，公共管理、社会保障和社会组织，并对应下设的细分类。其中，机关单位的所属行业为“第三产业—公共管理和社会组织—中国共产党机关（或其他分类）”。
+    2.所属地域：13个地市、农垦、森工。
+    3.人员类别：按照单位性质“机关”“事业单位”“社会团体”及“企业”划分为4种问卷，主要差别在管理人员项目中。
+    4.单位流失人才信息表中的“离职时间”写清年份和月份即可。
+    5.单位流失人才信息表中的“从业年限”为在本单位工作年限。
+    6.单位流失人才信息表中的“流入地”为流失人员的去向，即到哪座城市参加工作或流向哪座城市，填写到省份即可。
+    7.薪酬在取值区间点，按照左闭右开选择。例如：薪酬为4000元，选择薪酬区间为4000-5000。
+    8.单位流失人才信息表中关于人才层次的界定请看常见问题回答，且为单选，就高不就低。
+    四、系统运行说明
+    1.请使用最新版本浏览器登陆。
+    2.调查平台对相关信息自动校验，请准确填写。
+    3.请用规格为A3的纸张打印。
+    谢谢您在百忙之中抽出时间填写问卷，调查内容将严格保密，且不涉及税务、社保等问题，请您放心作答！</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2773,7 +1722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2862,20 +1811,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -2950,6 +1885,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3063,7 +2004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3151,160 +2092,169 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3317,7 +2267,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3337,19 +2287,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3629,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:XES47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H47"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3645,16 +2601,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="A3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="4"/>
@@ -3703,592 +2659,592 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="A7" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="52" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12" s="18" customFormat="1" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L23" s="53"/>
     </row>
-    <row r="24" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
+    <row r="24" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
+    <row r="25" spans="1:12" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+    <row r="41" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+    <row r="44" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+    <row r="46" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
+    <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="4"/>
@@ -4313,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:DF34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BH22" sqref="BH22:BH23"/>
     </sheetView>
   </sheetViews>
@@ -4328,74 +3284,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" s="32" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
+      <c r="A1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63"/>
       <c r="BO1" s="31"/>
       <c r="BP1" s="31"/>
       <c r="BQ1" s="31"/>
@@ -4443,269 +3399,269 @@
     </row>
     <row r="3" spans="1:110" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
     </row>
     <row r="4" spans="1:110" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
     </row>
     <row r="5" spans="1:110" s="29" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="F5" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="G5" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="60" t="s">
+      <c r="K5" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="60" t="s">
+      <c r="L5" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="M5" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="60" t="s">
+      <c r="N5" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="60" t="s">
+      <c r="O5" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="P5" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="Q5" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="R5" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="S5" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="T5" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="67" t="s">
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="67" t="s">
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="67" t="s">
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="67" t="s">
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="67" t="s">
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="67" t="s">
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="67" t="s">
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
+      <c r="BA5" s="71"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="67" t="s">
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="71"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="68"/>
-      <c r="BK5" s="68"/>
-      <c r="BL5" s="69"/>
+      <c r="BI5" s="71"/>
+      <c r="BJ5" s="71"/>
+      <c r="BK5" s="71"/>
+      <c r="BL5" s="72"/>
     </row>
     <row r="6" spans="1:110" s="29" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
@@ -4728,147 +3684,147 @@
       <c r="R6" s="62"/>
       <c r="S6" s="62"/>
       <c r="T6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="W6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="X6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="Y6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="AA6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="AB6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AB6" s="33" t="s">
+      <c r="AC6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AC6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AD6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AE6" s="33" t="s">
+      <c r="AF6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AF6" s="33" t="s">
+      <c r="AG6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AH6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AH6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AI6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AJ6" s="33" t="s">
+      <c r="AK6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AL6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AM6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AM6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AN6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AO6" s="33" t="s">
+      <c r="AP6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AP6" s="33" t="s">
+      <c r="AQ6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AQ6" s="33" t="s">
+      <c r="AR6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AR6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AS6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AT6" s="33" t="s">
+      <c r="AU6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AU6" s="33" t="s">
+      <c r="AV6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AV6" s="33" t="s">
+      <c r="AW6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AW6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AX6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AY6" s="33" t="s">
+      <c r="AZ6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AZ6" s="33" t="s">
+      <c r="BA6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BA6" s="33" t="s">
+      <c r="BB6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BB6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="BC6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BD6" s="33" t="s">
+      <c r="BE6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BE6" s="33" t="s">
+      <c r="BF6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BF6" s="33" t="s">
+      <c r="BG6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BG6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="BH6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BI6" s="33" t="s">
+      <c r="BJ6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BJ6" s="33" t="s">
+      <c r="BK6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BK6" s="33" t="s">
+      <c r="BL6" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="BL6" s="33" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:110" s="29" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="C7" s="35">
         <v>1</v>
@@ -5759,283 +4715,283 @@
     </row>
     <row r="20" spans="1:66" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="63" t="s">
-        <v>163</v>
+      <c r="C20" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="71"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="74"/>
+      <c r="BK20" s="74"/>
+      <c r="BL20" s="74"/>
+      <c r="BM20" s="74"/>
+      <c r="BN20" s="60" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="59" t="s">
+      <c r="C21" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59" t="s">
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="60" t="s">
+      <c r="BC21" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="BC21" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
       <c r="BN21" s="61"/>
     </row>
     <row r="22" spans="1:66" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="65"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59" t="s">
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59" t="s">
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59" t="s">
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59" t="s">
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59" t="s">
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59" t="s">
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59" t="s">
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="60" t="s">
+      <c r="AR22" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AR22" s="60" t="s">
+      <c r="AS22" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AS22" s="60" t="s">
+      <c r="AT22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AT22" s="60" t="s">
+      <c r="AU22" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AU22" s="60" t="s">
+      <c r="AV22" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW22" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="AV22" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW22" s="60" t="s">
+      <c r="AX22" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="AX22" s="60" t="s">
+      <c r="AY22" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="AY22" s="60" t="s">
+      <c r="AZ22" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AZ22" s="60" t="s">
+      <c r="BA22" s="67" t="s">
         <v>147</v>
-      </c>
-      <c r="BA22" s="60" t="s">
-        <v>148</v>
       </c>
       <c r="BB22" s="61"/>
       <c r="BC22" s="61"/>
-      <c r="BD22" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE22" s="60" t="s">
+      <c r="BD22" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE22" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF22" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="BF22" s="60" t="s">
+      <c r="BG22" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="BG22" s="60" t="s">
+      <c r="BH22" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="BH22" s="60" t="s">
+      <c r="BI22" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="BI22" s="60" t="s">
+      <c r="BJ22" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="BJ22" s="60" t="s">
+      <c r="BK22" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="BK22" s="60" t="s">
+      <c r="BL22" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="BL22" s="60" t="s">
+      <c r="BM22" s="67" t="s">
         <v>156</v>
-      </c>
-      <c r="BM22" s="60" t="s">
-        <v>157</v>
       </c>
       <c r="BN22" s="61"/>
     </row>
@@ -6043,124 +4999,124 @@
       <c r="A23" s="66"/>
       <c r="B23" s="62"/>
       <c r="C23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="E23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="H23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="L23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="M23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="O23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="P23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="Q23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="Q23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="R23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="S23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="33" t="s">
+      <c r="T23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="T23" s="33" t="s">
+      <c r="U23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="U23" s="33" t="s">
+      <c r="V23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="V23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="W23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="X23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="X23" s="33" t="s">
+      <c r="Y23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="Y23" s="33" t="s">
+      <c r="Z23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="33" t="s">
+      <c r="AA23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AA23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AB23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AC23" s="33" t="s">
+      <c r="AD23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AE23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AE23" s="33" t="s">
+      <c r="AF23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AF23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AG23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AH23" s="33" t="s">
+      <c r="AI23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AI23" s="33" t="s">
+      <c r="AJ23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AJ23" s="33" t="s">
+      <c r="AK23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AK23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AL23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AM23" s="33" t="s">
+      <c r="AN23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AN23" s="33" t="s">
+      <c r="AO23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AO23" s="33" t="s">
+      <c r="AP23" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="AP23" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="AQ23" s="62"/>
       <c r="AR23" s="62"/>
@@ -6189,10 +5145,10 @@
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="C24" s="35">
         <v>63</v>
@@ -7109,6 +6065,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="BD20:BM21"/>
+    <mergeCell ref="AQ21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="BC21:BC23"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BH22:BH23"/>
+    <mergeCell ref="BI22:BI23"/>
+    <mergeCell ref="BJ22:BJ23"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:BC20"/>
+    <mergeCell ref="C21:AP21"/>
+    <mergeCell ref="BB21:BB23"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AL22:AP22"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AW22:AW23"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P3:BL3"/>
+    <mergeCell ref="T4:BL4"/>
+    <mergeCell ref="BL22:BL23"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="AX5:BB5"/>
+    <mergeCell ref="AX22:AX23"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="BH5:BL5"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="AI5:AM5"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="BK22:BK23"/>
+    <mergeCell ref="H22:L22"/>
     <mergeCell ref="BN20:BN23"/>
     <mergeCell ref="A1:BN1"/>
     <mergeCell ref="A3:A6"/>
@@ -7125,64 +6139,6 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="BH5:BL5"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AI5:AM5"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="BK22:BK23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AW22:AW23"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P3:BL3"/>
-    <mergeCell ref="T4:BL4"/>
-    <mergeCell ref="BL22:BL23"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="AX5:BB5"/>
-    <mergeCell ref="AX22:AX23"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:BC20"/>
-    <mergeCell ref="C21:AP21"/>
-    <mergeCell ref="BB21:BB23"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="AB22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AL22:AP22"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="BD20:BM21"/>
-    <mergeCell ref="AQ21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="BC21:BC23"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="BM22:BM23"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BH22:BH23"/>
-    <mergeCell ref="BI22:BI23"/>
-    <mergeCell ref="BJ22:BJ23"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BE23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7199,7 +6155,7 @@
   <dimension ref="A1:XFA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BD20" sqref="BD20:BM23"/>
+      <selection activeCell="Q5" sqref="Q5:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -7215,502 +6171,502 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63"/>
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63"/>
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63"/>
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+    </row>
+    <row r="3" spans="1:65" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="70"/>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="70"/>
-      <c r="AP1" s="70"/>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="70"/>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-    </row>
-    <row r="3" spans="1:65" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="71" t="s">
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="59" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+    </row>
+    <row r="4" spans="1:65" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="62" t="s">
         <v>95</v>
-      </c>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="59"/>
-      <c r="BK3" s="59"/>
-      <c r="BL3" s="59"/>
-    </row>
-    <row r="4" spans="1:65" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="62" t="s">
-        <v>96</v>
       </c>
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
       <c r="S4" s="62"/>
-      <c r="T4" s="59" t="s">
+      <c r="T4" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+    </row>
+    <row r="5" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-    </row>
-    <row r="5" spans="1:65" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="72" t="s">
+      <c r="E5" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="F5" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="G5" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="60" t="s">
+      <c r="K5" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="L5" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="M5" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="N5" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="O5" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="P5" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="Q5" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="Q5" s="60" t="s">
+      <c r="R5" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="S5" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="S5" s="60" t="s">
+      <c r="T5" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="T5" s="67" t="s">
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="67" t="s">
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="67" t="s">
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="67" t="s">
+      <c r="AJ5" s="71"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="67" t="s">
+      <c r="AO5" s="71"/>
+      <c r="AP5" s="71"/>
+      <c r="AQ5" s="71"/>
+      <c r="AR5" s="72"/>
+      <c r="AS5" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="67" t="s">
+      <c r="AT5" s="71"/>
+      <c r="AU5" s="71"/>
+      <c r="AV5" s="71"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="AT5" s="68"/>
-      <c r="AU5" s="68"/>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="67" t="s">
+      <c r="AY5" s="71"/>
+      <c r="AZ5" s="71"/>
+      <c r="BA5" s="71"/>
+      <c r="BB5" s="72"/>
+      <c r="BC5" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="69"/>
-      <c r="BC5" s="67" t="s">
+      <c r="BD5" s="71"/>
+      <c r="BE5" s="71"/>
+      <c r="BF5" s="71"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="69"/>
-      <c r="BH5" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="BI5" s="68"/>
-      <c r="BJ5" s="68"/>
-      <c r="BK5" s="68"/>
-      <c r="BL5" s="69"/>
+      <c r="BI5" s="71"/>
+      <c r="BJ5" s="71"/>
+      <c r="BK5" s="71"/>
+      <c r="BL5" s="72"/>
     </row>
     <row r="6" spans="1:65" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
       <c r="S6" s="62"/>
       <c r="T6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="W6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="W6" s="33" t="s">
+      <c r="X6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="X6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="Y6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="33" t="s">
+      <c r="AA6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="AB6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AB6" s="33" t="s">
+      <c r="AC6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AC6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AD6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AE6" s="33" t="s">
+      <c r="AF6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AF6" s="33" t="s">
+      <c r="AG6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AG6" s="33" t="s">
+      <c r="AH6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AH6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AI6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AJ6" s="33" t="s">
+      <c r="AK6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AK6" s="33" t="s">
+      <c r="AL6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AL6" s="33" t="s">
+      <c r="AM6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AM6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AN6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AO6" s="33" t="s">
+      <c r="AP6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AP6" s="33" t="s">
+      <c r="AQ6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AQ6" s="33" t="s">
+      <c r="AR6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AR6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AS6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AT6" s="33" t="s">
+      <c r="AU6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AU6" s="33" t="s">
+      <c r="AV6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AV6" s="33" t="s">
+      <c r="AW6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AW6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AX6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AY6" s="33" t="s">
+      <c r="AZ6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AZ6" s="33" t="s">
+      <c r="BA6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BA6" s="33" t="s">
+      <c r="BB6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BB6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="BC6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BD6" s="33" t="s">
+      <c r="BE6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BE6" s="33" t="s">
+      <c r="BF6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BF6" s="33" t="s">
+      <c r="BG6" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BG6" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="BH6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BI6" s="33" t="s">
+      <c r="BJ6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BJ6" s="33" t="s">
+      <c r="BK6" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BK6" s="33" t="s">
+      <c r="BL6" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="BL6" s="33" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:65" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="C7" s="45">
         <v>1</v>
@@ -8600,79 +7556,79 @@
       <c r="BL17" s="38"/>
     </row>
     <row r="20" spans="1:65 16367:16381" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="AN20" s="68"/>
-      <c r="AO20" s="68"/>
-      <c r="AP20" s="68"/>
-      <c r="AQ20" s="68"/>
-      <c r="AR20" s="68"/>
-      <c r="AS20" s="68"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
+      <c r="C20" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="71"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="71"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="71"/>
+      <c r="AT20" s="71"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="71"/>
+      <c r="AX20" s="71"/>
+      <c r="AY20" s="71"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="71"/>
+      <c r="BC20" s="72"/>
+      <c r="BD20" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="74"/>
+      <c r="BJ20" s="74"/>
+      <c r="BK20" s="74"/>
+      <c r="BL20" s="74"/>
+      <c r="BM20" s="74"/>
       <c r="XEM20" s="43"/>
       <c r="XEN20" s="43"/>
       <c r="XEO20" s="43"/>
@@ -8685,81 +7641,81 @@
       <c r="XFA20" s="30"/>
     </row>
     <row r="21" spans="1:65 16367:16381" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="AN21" s="68"/>
-      <c r="AO21" s="68"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="59" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="71"/>
+      <c r="AH21" s="71"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="72"/>
+      <c r="AQ21" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR21" s="69"/>
+      <c r="AS21" s="69"/>
+      <c r="AT21" s="69"/>
+      <c r="AU21" s="69"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59" t="s">
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="69"/>
+      <c r="AZ21" s="69"/>
+      <c r="BA21" s="69"/>
+      <c r="BB21" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="59"/>
-      <c r="BB21" s="60" t="s">
+      <c r="BC21" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="BC21" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="74"/>
+      <c r="BJ21" s="74"/>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
       <c r="XEM21" s="43"/>
       <c r="XEN21" s="43"/>
       <c r="XEO21" s="43"/>
@@ -8772,128 +7728,128 @@
       <c r="XFA21" s="30"/>
     </row>
     <row r="22" spans="1:65 16367:16381" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="59" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59" t="s">
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59" t="s">
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59" t="s">
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59" t="s">
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59" t="s">
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59" t="s">
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59" t="s">
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="60" t="s">
+      <c r="AR22" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="AR22" s="60" t="s">
+      <c r="AS22" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="AS22" s="60" t="s">
+      <c r="AT22" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="AT22" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU22" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV22" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW22" s="60" t="s">
+      <c r="AU22" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="AV22" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW22" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="AX22" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="AX22" s="60" t="s">
+      <c r="AY22" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="AY22" s="60" t="s">
+      <c r="AZ22" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AZ22" s="60" t="s">
+      <c r="BA22" s="67" t="s">
         <v>147</v>
-      </c>
-      <c r="BA22" s="60" t="s">
-        <v>148</v>
       </c>
       <c r="BB22" s="61"/>
       <c r="BC22" s="61"/>
-      <c r="BD22" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE22" s="60" t="s">
+      <c r="BD22" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE22" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF22" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="BF22" s="60" t="s">
+      <c r="BG22" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="BG22" s="60" t="s">
+      <c r="BH22" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="BH22" s="60" t="s">
+      <c r="BI22" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="BI22" s="60" t="s">
+      <c r="BJ22" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="BJ22" s="60" t="s">
+      <c r="BK22" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="BK22" s="60" t="s">
+      <c r="BL22" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="BL22" s="60" t="s">
+      <c r="BM22" s="67" t="s">
         <v>156</v>
-      </c>
-      <c r="BM22" s="60" t="s">
-        <v>157</v>
       </c>
       <c r="XEM22" s="43"/>
       <c r="XEN22" s="43"/>
@@ -8907,127 +7863,127 @@
       <c r="XFA22" s="30"/>
     </row>
     <row r="23" spans="1:65 16367:16381" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="E23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="G23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="H23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="J23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="K23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="L23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="M23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="O23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="33" t="s">
+      <c r="P23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="33" t="s">
+      <c r="Q23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="Q23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="R23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="S23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="S23" s="33" t="s">
+      <c r="T23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="T23" s="33" t="s">
+      <c r="U23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="U23" s="33" t="s">
+      <c r="V23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="V23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="W23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="X23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="X23" s="33" t="s">
+      <c r="Y23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="Y23" s="33" t="s">
+      <c r="Z23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="Z23" s="33" t="s">
+      <c r="AA23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AA23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AB23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AC23" s="33" t="s">
+      <c r="AD23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AD23" s="33" t="s">
+      <c r="AE23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AE23" s="33" t="s">
+      <c r="AF23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AF23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AG23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AH23" s="33" t="s">
+      <c r="AI23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AI23" s="33" t="s">
+      <c r="AJ23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AJ23" s="33" t="s">
+      <c r="AK23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AK23" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="AL23" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM23" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AM23" s="33" t="s">
+      <c r="AN23" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AN23" s="33" t="s">
+      <c r="AO23" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="AO23" s="33" t="s">
+      <c r="AP23" s="33" t="s">
         <v>123</v>
-      </c>
-      <c r="AP23" s="33" t="s">
-        <v>124</v>
       </c>
       <c r="AQ23" s="62"/>
       <c r="AR23" s="62"/>
@@ -9065,10 +8021,10 @@
     </row>
     <row r="24" spans="1:65 16367:16381" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="44" t="s">
         <v>125</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="C24" s="35">
         <v>63</v>
@@ -10082,6 +9038,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="BH5:BL5"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="AL22:AP22"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="AQ21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="BB21:BB23"/>
+    <mergeCell ref="BC21:BC23"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="F3:J4"/>
+    <mergeCell ref="K3:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="BM22:BM23"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AW22:AW23"/>
+    <mergeCell ref="AX22:AX23"/>
+    <mergeCell ref="AY22:AY23"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="BE22:BE23"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BH22:BH23"/>
+    <mergeCell ref="P3:BL3"/>
+    <mergeCell ref="T4:BL4"/>
+    <mergeCell ref="C20:BC20"/>
+    <mergeCell ref="C21:AP21"/>
+    <mergeCell ref="BI22:BI23"/>
+    <mergeCell ref="BJ22:BJ23"/>
+    <mergeCell ref="BK22:BK23"/>
+    <mergeCell ref="BL22:BL23"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="AI5:AM5"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="A1:BM1"/>
     <mergeCell ref="BD20:BM21"/>
     <mergeCell ref="C3:C6"/>
@@ -10098,63 +9111,6 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="D3:E4"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BH22:BH23"/>
-    <mergeCell ref="P3:BL3"/>
-    <mergeCell ref="T4:BL4"/>
-    <mergeCell ref="C20:BC20"/>
-    <mergeCell ref="C21:AP21"/>
-    <mergeCell ref="BI22:BI23"/>
-    <mergeCell ref="BJ22:BJ23"/>
-    <mergeCell ref="BK22:BK23"/>
-    <mergeCell ref="BL22:BL23"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="AI5:AM5"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="BM22:BM23"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="AB22:AF22"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AW22:AW23"/>
-    <mergeCell ref="AX22:AX23"/>
-    <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="F3:J4"/>
-    <mergeCell ref="K3:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="BH5:BL5"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="AL22:AP22"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="AQ21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="BB21:BB23"/>
-    <mergeCell ref="BC21:BC23"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:X5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -10171,7 +9127,7 @@
   <dimension ref="A1:XFA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG15" sqref="AG15"/>
+      <selection activeCell="BM22" sqref="BM22:BM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.08984375" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10186,384 +9142,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" ht="17.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="55"/>
-      <c r="BT1" s="55"/>
+      <c r="A1" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
     </row>
     <row r="3" spans="1:72" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="94"/>
+      <c r="F3" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+    </row>
+    <row r="4" spans="1:72" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="83"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+    </row>
+    <row r="5" spans="1:72" ht="65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="84"/>
-      <c r="AK3" s="84"/>
-      <c r="AL3" s="84"/>
-      <c r="AM3" s="84"/>
-      <c r="AN3" s="84"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="84"/>
-      <c r="AW3" s="84"/>
-      <c r="AX3" s="84"/>
-      <c r="AY3" s="84"/>
-      <c r="AZ3" s="84"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="84"/>
-      <c r="BI3" s="84"/>
-      <c r="BJ3" s="84"/>
-      <c r="BK3" s="84"/>
-      <c r="BL3" s="84"/>
-      <c r="BM3" s="84"/>
-      <c r="BN3" s="84"/>
-      <c r="BO3" s="84"/>
-      <c r="BP3" s="84"/>
-      <c r="BQ3" s="84"/>
-    </row>
-    <row r="4" spans="1:72" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="84"/>
-      <c r="BI4" s="84"/>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="84"/>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="84"/>
-    </row>
-    <row r="5" spans="1:72" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="88" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="88" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="78" t="s">
+      <c r="R5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="S5" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="81" t="s">
+      <c r="T5" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="81" t="s">
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="81" t="s">
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="82"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="81" t="s">
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="82"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="81" t="s">
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="AO5" s="82"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="82"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="81" t="s">
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="82"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="81" t="s">
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="AY5" s="82"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="82"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="81" t="s">
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="BD5" s="82"/>
-      <c r="BE5" s="82"/>
-      <c r="BF5" s="82"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="81" t="s">
+      <c r="BD5" s="85"/>
+      <c r="BE5" s="85"/>
+      <c r="BF5" s="85"/>
+      <c r="BG5" s="86"/>
+      <c r="BH5" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="BI5" s="82"/>
-      <c r="BJ5" s="82"/>
-      <c r="BK5" s="82"/>
-      <c r="BL5" s="83"/>
-      <c r="BM5" s="84" t="s">
+      <c r="BI5" s="85"/>
+      <c r="BJ5" s="85"/>
+      <c r="BK5" s="85"/>
+      <c r="BL5" s="86"/>
+      <c r="BM5" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
-      <c r="BQ5" s="84"/>
+      <c r="BN5" s="83"/>
+      <c r="BO5" s="83"/>
+      <c r="BP5" s="83"/>
+      <c r="BQ5" s="83"/>
     </row>
     <row r="6" spans="1:72" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
       <c r="T6" s="13" t="s">
         <v>5</v>
       </c>
@@ -10717,10 +9673,10 @@
     </row>
     <row r="7" spans="1:72" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -11675,88 +10631,88 @@
       <c r="BQ17" s="6"/>
     </row>
     <row r="20" spans="1:72 16362:16381" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="82"/>
-      <c r="Y20" s="82"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="82"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="82"/>
-      <c r="AL20" s="82"/>
-      <c r="AM20" s="82"/>
-      <c r="AN20" s="82"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="82"/>
-      <c r="AR20" s="82"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="82"/>
-      <c r="AU20" s="82"/>
-      <c r="AV20" s="82"/>
-      <c r="AW20" s="82"/>
-      <c r="AX20" s="83"/>
-      <c r="AY20" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="93"/>
-      <c r="BQ20" s="93"/>
-      <c r="BR20" s="93"/>
-      <c r="BS20" s="93"/>
-      <c r="BT20" s="93"/>
+      <c r="B20" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="85"/>
+      <c r="U20" s="85"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="85"/>
+      <c r="Y20" s="85"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="85"/>
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="85"/>
+      <c r="AE20" s="85"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="85"/>
+      <c r="AH20" s="85"/>
+      <c r="AI20" s="85"/>
+      <c r="AJ20" s="85"/>
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="85"/>
+      <c r="AN20" s="85"/>
+      <c r="AO20" s="85"/>
+      <c r="AP20" s="85"/>
+      <c r="AQ20" s="85"/>
+      <c r="AR20" s="85"/>
+      <c r="AS20" s="85"/>
+      <c r="AT20" s="85"/>
+      <c r="AU20" s="85"/>
+      <c r="AV20" s="85"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="86"/>
+      <c r="AY20" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ20" s="74"/>
+      <c r="BA20" s="74"/>
+      <c r="BB20" s="74"/>
+      <c r="BC20" s="74"/>
+      <c r="BD20" s="74"/>
+      <c r="BE20" s="74"/>
+      <c r="BF20" s="74"/>
+      <c r="BG20" s="74"/>
+      <c r="BH20" s="74"/>
+      <c r="BI20" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ20" s="87"/>
+      <c r="BK20" s="87"/>
+      <c r="BL20" s="87"/>
+      <c r="BM20" s="87"/>
+      <c r="BN20" s="87"/>
+      <c r="BO20" s="87"/>
+      <c r="BP20" s="87"/>
+      <c r="BQ20" s="87"/>
+      <c r="BR20" s="87"/>
+      <c r="BS20" s="87"/>
+      <c r="BT20" s="87"/>
       <c r="XEH20" s="1"/>
       <c r="XEI20" s="1"/>
       <c r="XEJ20" s="1"/>
@@ -11779,88 +10735,88 @@
       <c r="XFA20"/>
     </row>
     <row r="21" spans="1:72 16362:16381" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="83"/>
-      <c r="AL21" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM21" s="84"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="85"/>
+      <c r="T21" s="85"/>
+      <c r="U21" s="85"/>
+      <c r="V21" s="85"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="85"/>
+      <c r="AE21" s="85"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="85"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="AS21" s="84"/>
-      <c r="AT21" s="84"/>
-      <c r="AU21" s="84"/>
-      <c r="AV21" s="84"/>
-      <c r="AW21" s="78" t="s">
+      <c r="AM21" s="83"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="83"/>
+      <c r="AP21" s="83"/>
+      <c r="AQ21" s="83"/>
+      <c r="AR21" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="AX21" s="78" t="s">
+      <c r="AS21" s="83"/>
+      <c r="AT21" s="83"/>
+      <c r="AU21" s="83"/>
+      <c r="AV21" s="83"/>
+      <c r="AW21" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX21" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
-      <c r="BB21" s="58"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="93"/>
-      <c r="BJ21" s="93"/>
-      <c r="BK21" s="93"/>
-      <c r="BL21" s="93"/>
-      <c r="BM21" s="93"/>
-      <c r="BN21" s="93"/>
-      <c r="BO21" s="93"/>
-      <c r="BP21" s="93"/>
-      <c r="BQ21" s="93"/>
-      <c r="BR21" s="93"/>
-      <c r="BS21" s="93"/>
-      <c r="BT21" s="93"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="74"/>
+      <c r="BB21" s="74"/>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="87"/>
+      <c r="BJ21" s="87"/>
+      <c r="BK21" s="87"/>
+      <c r="BL21" s="87"/>
+      <c r="BM21" s="87"/>
+      <c r="BN21" s="87"/>
+      <c r="BO21" s="87"/>
+      <c r="BP21" s="87"/>
+      <c r="BQ21" s="87"/>
+      <c r="BR21" s="87"/>
+      <c r="BS21" s="87"/>
+      <c r="BT21" s="87"/>
       <c r="XEH21" s="1"/>
       <c r="XEI21" s="1"/>
       <c r="XEJ21" s="1"/>
@@ -11883,157 +10839,157 @@
       <c r="XFA21"/>
     </row>
     <row r="22" spans="1:72 16362:16381" ht="65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="84" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84" t="s">
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84" t="s">
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84" t="s">
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84" t="s">
+      <c r="X22" s="83"/>
+      <c r="Y22" s="83"/>
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="83"/>
+      <c r="AB22" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AC22" s="84"/>
-      <c r="AD22" s="84"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84" t="s">
+      <c r="AC22" s="83"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="84"/>
-      <c r="AK22" s="84"/>
-      <c r="AL22" s="78" t="s">
+      <c r="AH22" s="83"/>
+      <c r="AI22" s="83"/>
+      <c r="AJ22" s="83"/>
+      <c r="AK22" s="83"/>
+      <c r="AL22" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="AM22" s="78" t="s">
+      <c r="AM22" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="AN22" s="78" t="s">
+      <c r="AN22" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="AO22" s="78" t="s">
+      <c r="AO22" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="AP22" s="78" t="s">
+      <c r="AP22" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="AQ22" s="63" t="s">
+      <c r="AQ22" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AR22" s="78" t="s">
+      <c r="AR22" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="AS22" s="78" t="s">
+      <c r="AS22" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="AT22" s="78" t="s">
+      <c r="AT22" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="AU22" s="78" t="s">
+      <c r="AU22" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AV22" s="78" t="s">
+      <c r="AV22" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ22" s="60" t="s">
+      <c r="AW22" s="96"/>
+      <c r="AX22" s="96"/>
+      <c r="AY22" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ22" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA22" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="BA22" s="60" t="s">
+      <c r="BB22" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="BB22" s="60" t="s">
+      <c r="BC22" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="BC22" s="60" t="s">
+      <c r="BD22" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="BD22" s="60" t="s">
+      <c r="BE22" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="BE22" s="60" t="s">
+      <c r="BF22" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="BF22" s="60" t="s">
+      <c r="BG22" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="BG22" s="60" t="s">
+      <c r="BH22" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="BH22" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI22" s="78" t="s">
+      <c r="BI22" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ22" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="BJ22" s="78" t="s">
+      <c r="BK22" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="BK22" s="78" t="s">
+      <c r="BL22" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="BL22" s="78" t="s">
+      <c r="BM22" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="BM22" s="78" t="s">
+      <c r="BN22" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="BN22" s="78" t="s">
+      <c r="BO22" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="BO22" s="78" t="s">
+      <c r="BP22" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="BP22" s="78" t="s">
+      <c r="BQ22" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR22" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="BQ22" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="BR22" s="78" t="s">
+      <c r="BS22" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="BS22" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT22" s="84" t="s">
-        <v>64</v>
+      <c r="BT22" s="83" t="s">
+        <v>63</v>
       </c>
       <c r="XEH22" s="1"/>
       <c r="XEI22" s="1"/>
@@ -12057,8 +11013,8 @@
       <c r="XFA22"/>
     </row>
     <row r="23" spans="1:72 16362:16381" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="13" t="s">
         <v>5</v>
       </c>
@@ -12164,19 +11120,19 @@
       <c r="AK23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="80"/>
-      <c r="AN23" s="80"/>
-      <c r="AO23" s="80"/>
-      <c r="AP23" s="80"/>
-      <c r="AQ23" s="91"/>
-      <c r="AR23" s="80"/>
-      <c r="AS23" s="80"/>
-      <c r="AT23" s="80"/>
-      <c r="AU23" s="80"/>
-      <c r="AV23" s="80"/>
-      <c r="AW23" s="80"/>
-      <c r="AX23" s="80"/>
+      <c r="AL23" s="82"/>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="82"/>
+      <c r="AP23" s="82"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="82"/>
+      <c r="AS23" s="82"/>
+      <c r="AT23" s="82"/>
+      <c r="AU23" s="82"/>
+      <c r="AV23" s="82"/>
+      <c r="AW23" s="82"/>
+      <c r="AX23" s="82"/>
       <c r="AY23" s="62"/>
       <c r="AZ23" s="62"/>
       <c r="BA23" s="62"/>
@@ -12187,18 +11143,18 @@
       <c r="BF23" s="62"/>
       <c r="BG23" s="62"/>
       <c r="BH23" s="62"/>
-      <c r="BI23" s="80"/>
-      <c r="BJ23" s="80"/>
-      <c r="BK23" s="80"/>
-      <c r="BL23" s="80"/>
-      <c r="BM23" s="80"/>
-      <c r="BN23" s="80"/>
-      <c r="BO23" s="80"/>
-      <c r="BP23" s="80"/>
-      <c r="BQ23" s="80"/>
-      <c r="BR23" s="80"/>
-      <c r="BS23" s="80"/>
-      <c r="BT23" s="84"/>
+      <c r="BI23" s="82"/>
+      <c r="BJ23" s="82"/>
+      <c r="BK23" s="82"/>
+      <c r="BL23" s="82"/>
+      <c r="BM23" s="82"/>
+      <c r="BN23" s="82"/>
+      <c r="BO23" s="82"/>
+      <c r="BP23" s="82"/>
+      <c r="BQ23" s="82"/>
+      <c r="BR23" s="82"/>
+      <c r="BS23" s="82"/>
+      <c r="BT23" s="83"/>
       <c r="XEH23" s="1"/>
       <c r="XEI23" s="1"/>
       <c r="XEJ23" s="1"/>
@@ -12222,10 +11178,10 @@
     </row>
     <row r="24" spans="1:72 16362:16381" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="C24" s="12">
         <v>68</v>
@@ -13440,6 +12396,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="AW21:AW23"/>
+    <mergeCell ref="AX21:AX23"/>
+    <mergeCell ref="BH5:BL5"/>
+    <mergeCell ref="BM5:BQ5"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="AV22:AV23"/>
+    <mergeCell ref="AG22:AK22"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AM22:AM23"/>
+    <mergeCell ref="AN22:AN23"/>
+    <mergeCell ref="AO22:AO23"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AB22:AF22"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="AL21:AQ21"/>
+    <mergeCell ref="AR21:AV21"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AS22:AS23"/>
+    <mergeCell ref="AT22:AT23"/>
+    <mergeCell ref="AU22:AU23"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="BC5:BG5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="AI5:AM5"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="AX5:BB5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="BK22:BK23"/>
+    <mergeCell ref="BL22:BL23"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:J4"/>
+    <mergeCell ref="K3:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="BF22:BF23"/>
+    <mergeCell ref="AZ22:AZ23"/>
+    <mergeCell ref="BG22:BG23"/>
+    <mergeCell ref="BH22:BH23"/>
+    <mergeCell ref="BI22:BI23"/>
+    <mergeCell ref="BJ22:BJ23"/>
+    <mergeCell ref="BA22:BA23"/>
+    <mergeCell ref="BB22:BB23"/>
+    <mergeCell ref="BC22:BC23"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BE23"/>
     <mergeCell ref="A1:BT1"/>
     <mergeCell ref="BR22:BR23"/>
     <mergeCell ref="BS22:BS23"/>
@@ -13456,76 +12482,6 @@
     <mergeCell ref="AY20:BH21"/>
     <mergeCell ref="BI20:BT21"/>
     <mergeCell ref="AY22:AY23"/>
-    <mergeCell ref="AZ22:AZ23"/>
-    <mergeCell ref="BG22:BG23"/>
-    <mergeCell ref="BH22:BH23"/>
-    <mergeCell ref="BI22:BI23"/>
-    <mergeCell ref="BJ22:BJ23"/>
-    <mergeCell ref="BA22:BA23"/>
-    <mergeCell ref="BB22:BB23"/>
-    <mergeCell ref="BC22:BC23"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BE23"/>
-    <mergeCell ref="BK22:BK23"/>
-    <mergeCell ref="BL22:BL23"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:J4"/>
-    <mergeCell ref="K3:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="BF22:BF23"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="BC5:BG5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AI5:AM5"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="AX5:BB5"/>
-    <mergeCell ref="AB22:AF22"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="AL21:AQ21"/>
-    <mergeCell ref="AR21:AV21"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AS22:AS23"/>
-    <mergeCell ref="AT22:AT23"/>
-    <mergeCell ref="AU22:AU23"/>
-    <mergeCell ref="AW21:AW23"/>
-    <mergeCell ref="AX21:AX23"/>
-    <mergeCell ref="BH5:BL5"/>
-    <mergeCell ref="BM5:BQ5"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="AV22:AV23"/>
-    <mergeCell ref="AG22:AK22"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AM22:AM23"/>
-    <mergeCell ref="AN22:AN23"/>
-    <mergeCell ref="AO22:AO23"/>
-    <mergeCell ref="AP22:AP23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -13539,218 +12495,190 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:AH14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.1796875" style="51" customWidth="1"/>
     <col min="2" max="2" width="6.08984375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" style="23" customWidth="1"/>
-    <col min="4" max="5" width="1.81640625" style="23"/>
+    <col min="3" max="3" width="23.1796875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="3.90625" style="23" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" style="23" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" style="23" customWidth="1"/>
     <col min="8" max="8" width="4.7265625" style="23" customWidth="1"/>
     <col min="9" max="9" width="6.453125" style="23" customWidth="1"/>
-    <col min="10" max="24" width="3.6328125" style="23" customWidth="1"/>
-    <col min="25" max="25" width="2.1796875" style="51" customWidth="1"/>
-    <col min="26" max="26" width="12.26953125" style="23" customWidth="1"/>
-    <col min="27" max="27" width="4.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.36328125" style="23" customWidth="1"/>
-    <col min="29" max="29" width="11.36328125" style="23" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" style="23" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.90625" style="23" customWidth="1"/>
-    <col min="33" max="33" width="10.453125" style="23" customWidth="1"/>
-    <col min="34" max="34" width="2.90625" style="23" customWidth="1"/>
-    <col min="35" max="16384" width="1.81640625" style="23"/>
+    <col min="10" max="21" width="3.6328125" style="23" customWidth="1"/>
+    <col min="22" max="26" width="2.6328125" style="23" customWidth="1"/>
+    <col min="27" max="27" width="3.6328125" style="23" customWidth="1"/>
+    <col min="28" max="28" width="2.1796875" style="51" customWidth="1"/>
+    <col min="29" max="29" width="12.26953125" style="23" customWidth="1"/>
+    <col min="30" max="30" width="4.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.36328125" style="23" customWidth="1"/>
+    <col min="32" max="32" width="11.36328125" style="23" customWidth="1"/>
+    <col min="33" max="33" width="3.6328125" style="23" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.26953125" style="23" customWidth="1"/>
+    <col min="36" max="36" width="10.453125" style="23" customWidth="1"/>
+    <col min="37" max="37" width="2.90625" style="23" customWidth="1"/>
+    <col min="38" max="16384" width="1.81640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="55" t="s">
+    <row r="1" spans="1:27" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="19"/>
+    </row>
+    <row r="3" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-    </row>
-    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC3" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD3" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF3" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" s="93" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH3" s="84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="24"/>
+    </row>
+    <row r="4" spans="1:27" ht="65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
       <c r="J4" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K4" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>168</v>
-      </c>
       <c r="Q4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="28" t="s">
+      <c r="T4" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="U4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="84"/>
-    </row>
-    <row r="5" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA4" s="25"/>
+    </row>
+    <row r="5" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -13769,25 +12697,18 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="Y5" s="36">
-        <v>1</v>
-      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="6"/>
-    </row>
-    <row r="6" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>2</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -13806,25 +12727,18 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="Y6" s="36">
-        <v>2</v>
-      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="6"/>
-    </row>
-    <row r="7" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -13843,25 +12757,18 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="Y7" s="36">
-        <v>3</v>
-      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="6"/>
-    </row>
-    <row r="8" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -13880,25 +12787,18 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="Y8" s="36">
-        <v>4</v>
-      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="6"/>
-    </row>
-    <row r="9" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -13917,25 +12817,18 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="Y9" s="36">
-        <v>5</v>
-      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="6"/>
-    </row>
-    <row r="10" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -13954,25 +12847,18 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="Y10" s="36">
-        <v>6</v>
-      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="6"/>
-    </row>
-    <row r="11" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -13991,25 +12877,18 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="Y11" s="36">
-        <v>7</v>
-      </c>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="6"/>
-    </row>
-    <row r="12" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>8</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -14028,25 +12907,18 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="Y12" s="36">
-        <v>8</v>
-      </c>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="6"/>
-    </row>
-    <row r="13" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -14065,25 +12937,18 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="Y13" s="36">
-        <v>9</v>
-      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="6"/>
-    </row>
-    <row r="14" spans="1:34" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>10</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -14102,23 +12967,16 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-      <c r="Y14" s="36">
-        <v>10</v>
-      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="Y1:AH1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="V3:Z3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -14128,24 +12986,266 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="J3:U3"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C第 &amp;P 页，共 &amp;[5 页</oddFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF009077-77CE-4EB4-9096-63018BCF3A7E}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="83"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="36">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="36">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="36">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="36">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="36">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/resources/excel-model/单位问卷—企业—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—企业—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -2079,10 +2079,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2117,28 +2117,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2203,13 +2181,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2230,11 +2201,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2244,8 +2246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2259,24 +2262,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2292,23 +2287,47 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2327,69 +2346,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2411,7 +2368,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2423,43 +2488,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2471,127 +2548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2694,70 +2651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2791,6 +2689,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2802,7 +2759,7 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2811,137 +2768,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2963,10 +2920,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2996,17 +2953,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3014,13 +2965,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3047,7 +2998,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3065,31 +3016,28 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3122,13 +3070,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3140,37 +3088,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3494,18 +3436,18 @@
   <sheetPr/>
   <dimension ref="A3:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="10.6333333333333" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="69" customWidth="1"/>
-    <col min="6" max="10" width="10.6333333333333" style="68" customWidth="1"/>
-    <col min="11" max="11" width="37.725" style="68" customWidth="1"/>
-    <col min="12" max="12" width="31.3666666666667" style="68" customWidth="1"/>
-    <col min="13" max="16373" width="8" style="68" customWidth="1"/>
+    <col min="1" max="4" width="10.6333333333333" style="64" customWidth="1"/>
+    <col min="5" max="5" width="10.6333333333333" style="65" customWidth="1"/>
+    <col min="6" max="10" width="10.6333333333333" style="64" customWidth="1"/>
+    <col min="11" max="11" width="37.725" style="64" customWidth="1"/>
+    <col min="12" max="12" width="31.3666666666667" style="64" customWidth="1"/>
+    <col min="13" max="16373" width="8" style="64" customWidth="1"/>
     <col min="16374" max="16379" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3520,8 +3462,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" ht="18.75" spans="1:10">
       <c r="A4" s="1"/>
@@ -3560,594 +3502,594 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:10">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:10">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:10">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="1:10">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:10">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="72"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:10">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
-    <row r="13" s="68" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+    <row r="13" s="64" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
     </row>
-    <row r="14" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73" t="s">
+    <row r="14" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="74" t="s">
+      <c r="L14" s="70" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73" t="s">
+    <row r="15" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="74" t="s">
+      <c r="L15" s="70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" s="68" customFormat="1" ht="14" customHeight="1" spans="1:12">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73" t="s">
+    <row r="16" s="64" customFormat="1" ht="14" customHeight="1" spans="1:12">
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="70" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="68" customFormat="1" ht="14" customHeight="1" spans="1:12">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="75" t="s">
+    <row r="17" s="64" customFormat="1" ht="14" customHeight="1" spans="1:12">
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="68" customFormat="1" ht="14" customHeight="1" spans="1:12">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="75" t="s">
+    <row r="18" s="64" customFormat="1" ht="14" customHeight="1" spans="1:12">
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="74" t="s">
+      <c r="L18" s="70" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="76" t="s">
+    <row r="19" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="74" t="s">
+      <c r="L19" s="70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="76" t="s">
+    <row r="20" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="70" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73" t="s">
+    <row r="21" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73" t="s">
+    <row r="22" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="74" t="s">
+      <c r="L22" s="70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73" t="s">
+    <row r="23" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="74" t="s">
+      <c r="L23" s="70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73" t="s">
+    <row r="24" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="74" t="s">
+      <c r="L24" s="70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="68" customFormat="1" ht="15.75" spans="1:12">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73" t="s">
+    <row r="25" s="64" customFormat="1" ht="15.75" spans="1:12">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="74" t="s">
+      <c r="L25" s="70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" s="68" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
+    <row r="26" s="64" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
     </row>
-    <row r="27" s="68" customFormat="1" ht="15" customHeight="1" spans="1:10">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+    <row r="27" s="64" customFormat="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:10">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:10">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:10">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:10">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:10">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
     </row>
     <row r="34" ht="15" customHeight="1" spans="1:10">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
     </row>
     <row r="35" ht="15" customHeight="1" spans="1:10">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="1:10">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" ht="15" customHeight="1" spans="1:10">
-      <c r="A37" s="70"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
     </row>
     <row r="38" ht="15" customHeight="1" spans="1:10">
-      <c r="A38" s="70"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:10">
-      <c r="A39" s="70"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" ht="15" customHeight="1" spans="1:10">
-      <c r="A40" s="70"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" ht="15" customHeight="1" spans="1:10">
-      <c r="A41" s="70"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:10">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" ht="15" customHeight="1" spans="1:10">
-      <c r="A43" s="70"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="1:10">
-      <c r="A44" s="70"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:10">
-      <c r="A45" s="70"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:10">
-      <c r="A46" s="70"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:10">
-      <c r="A47" s="70"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:10">
-      <c r="A48" s="70"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:10">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4168,136 +4110,136 @@
   <sheetPr/>
   <dimension ref="A1:DF16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="45" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="45" customWidth="1"/>
-    <col min="6" max="110" width="2.63333333333333" style="62" customWidth="1"/>
-    <col min="111" max="127" width="2.63333333333333" style="45" customWidth="1"/>
-    <col min="128" max="136" width="2.09166666666667" style="45" customWidth="1"/>
-    <col min="137" max="16384" width="2.63333333333333" style="45"/>
+    <col min="1" max="1" width="4.26666666666667" style="42" customWidth="1"/>
+    <col min="2" max="5" width="2.63333333333333" style="42" customWidth="1"/>
+    <col min="6" max="110" width="2.63333333333333" style="59" customWidth="1"/>
+    <col min="111" max="127" width="2.63333333333333" style="42" customWidth="1"/>
+    <col min="128" max="136" width="2.09166666666667" style="42" customWidth="1"/>
+    <col min="137" max="16384" width="2.63333333333333" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" s="60" customFormat="1" ht="18.75" spans="1:110">
-      <c r="A1" s="49" t="s">
+    <row r="1" s="57" customFormat="1" ht="18.75" spans="1:110">
+      <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
-      <c r="BQ1" s="67"/>
-      <c r="BR1" s="67"/>
-      <c r="BS1" s="67"/>
-      <c r="BT1" s="67"/>
-      <c r="BU1" s="67"/>
-      <c r="BV1" s="67"/>
-      <c r="BW1" s="67"/>
-      <c r="BX1" s="67"/>
-      <c r="BY1" s="67"/>
-      <c r="BZ1" s="67"/>
-      <c r="CA1" s="67"/>
-      <c r="CB1" s="67"/>
-      <c r="CC1" s="67"/>
-      <c r="CD1" s="67"/>
-      <c r="CE1" s="67"/>
-      <c r="CF1" s="67"/>
-      <c r="CG1" s="67"/>
-      <c r="CH1" s="67"/>
-      <c r="CI1" s="67"/>
-      <c r="CJ1" s="67"/>
-      <c r="CK1" s="67"/>
-      <c r="CL1" s="67"/>
-      <c r="CM1" s="67"/>
-      <c r="CN1" s="67"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="67"/>
-      <c r="CQ1" s="67"/>
-      <c r="CR1" s="67"/>
-      <c r="CS1" s="67"/>
-      <c r="CT1" s="67"/>
-      <c r="CU1" s="67"/>
-      <c r="CV1" s="67"/>
-      <c r="CW1" s="67"/>
-      <c r="CX1" s="67"/>
-      <c r="CY1" s="67"/>
-      <c r="CZ1" s="67"/>
-      <c r="DA1" s="67"/>
-      <c r="DB1" s="67"/>
-      <c r="DC1" s="67"/>
-      <c r="DD1" s="67"/>
-      <c r="DE1" s="67"/>
-      <c r="DF1" s="67"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63"/>
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63"/>
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="63"/>
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63"/>
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63"/>
+      <c r="CD1" s="63"/>
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63"/>
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63"/>
+      <c r="CJ1" s="63"/>
+      <c r="CK1" s="63"/>
+      <c r="CL1" s="63"/>
+      <c r="CM1" s="63"/>
+      <c r="CN1" s="63"/>
+      <c r="CO1" s="63"/>
+      <c r="CP1" s="63"/>
+      <c r="CQ1" s="63"/>
+      <c r="CR1" s="63"/>
+      <c r="CS1" s="63"/>
+      <c r="CT1" s="63"/>
+      <c r="CU1" s="63"/>
+      <c r="CV1" s="63"/>
+      <c r="CW1" s="63"/>
+      <c r="CX1" s="63"/>
+      <c r="CY1" s="63"/>
+      <c r="CZ1" s="63"/>
+      <c r="DA1" s="63"/>
+      <c r="DB1" s="63"/>
+      <c r="DC1" s="63"/>
+      <c r="DD1" s="63"/>
+      <c r="DE1" s="63"/>
+      <c r="DF1" s="63"/>
     </row>
-    <row r="3" s="61" customFormat="1" ht="14" customHeight="1" spans="1:64">
-      <c r="A3" s="63" t="s">
+    <row r="3" s="58" customFormat="1" ht="14" customHeight="1" spans="1:64">
+      <c r="A3" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -4306,10 +4248,10 @@
       <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
@@ -4376,12 +4318,12 @@
       <c r="BK3" s="4"/>
       <c r="BL3" s="4"/>
     </row>
-    <row r="4" s="61" customFormat="1" ht="20" customHeight="1" spans="1:64">
-      <c r="A4" s="64"/>
+    <row r="4" s="58" customFormat="1" ht="20" customHeight="1" spans="1:64">
+      <c r="A4" s="61"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -4446,8 +4388,8 @@
       <c r="BK4" s="4"/>
       <c r="BL4" s="4"/>
     </row>
-    <row r="5" s="61" customFormat="1" ht="65" customHeight="1" spans="1:64">
-      <c r="A5" s="64"/>
+    <row r="5" s="58" customFormat="1" ht="65" customHeight="1" spans="1:64">
+      <c r="A5" s="61"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="10" t="s">
@@ -4489,99 +4431,99 @@
       <c r="P5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="66" t="s">
+      <c r="Q5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="66" t="s">
+      <c r="R5" s="39" t="s">
         <v>50</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="57" t="s">
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="57" t="s">
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="57" t="s">
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="57" t="s">
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="57" t="s">
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="57" t="s">
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="57" t="s">
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="57" t="s">
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="58"/>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="59"/>
+      <c r="BI5" s="55"/>
+      <c r="BJ5" s="55"/>
+      <c r="BK5" s="55"/>
+      <c r="BL5" s="56"/>
     </row>
-    <row r="6" s="61" customFormat="1" ht="45" customHeight="1" spans="1:64">
-      <c r="A6" s="65"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+    <row r="6" s="58" customFormat="1" ht="45" customHeight="1" spans="1:64">
+      <c r="A6" s="62"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>61</v>
       </c>
@@ -4718,197 +4660,197 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" s="61" customFormat="1" ht="12" customHeight="1" spans="1:64">
-      <c r="A7" s="65" t="s">
+    <row r="7" s="58" customFormat="1" ht="12" customHeight="1" spans="1:64">
+      <c r="A7" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <v>1</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>2</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>3</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="32">
         <v>4</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>5</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="32">
         <v>6</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="32">
         <v>7</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="32">
         <v>8</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>9</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="32">
         <v>10</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="32">
         <v>11</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="32">
         <v>12</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="32">
         <v>13</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="32">
         <v>14</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="32">
         <v>15</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="32">
         <v>16</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="32">
         <v>17</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="32">
         <v>18</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="32">
         <v>19</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="32">
         <v>20</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="32">
         <v>21</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="32">
         <v>22</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="32">
         <v>23</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="32">
         <v>24</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="32">
         <v>25</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="32">
         <v>26</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="32">
         <v>27</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="32">
         <v>28</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="32">
         <v>29</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="32">
         <v>30</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="32">
         <v>31</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="32">
         <v>32</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="32">
         <v>33</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="32">
         <v>34</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="32">
         <v>35</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="32">
         <v>36</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="32">
         <v>37</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="32">
         <v>38</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="32">
         <v>39</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="32">
         <v>40</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="32">
         <v>41</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="32">
         <v>42</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="32">
         <v>43</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="32">
         <v>44</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="32">
         <v>45</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="32">
         <v>46</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="32">
         <v>47</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="32">
         <v>48</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="32">
         <v>49</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="32">
         <v>50</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="32">
         <v>51</v>
       </c>
-      <c r="BB7" s="34">
+      <c r="BB7" s="32">
         <v>52</v>
       </c>
-      <c r="BC7" s="34">
+      <c r="BC7" s="32">
         <v>53</v>
       </c>
-      <c r="BD7" s="34">
+      <c r="BD7" s="32">
         <v>54</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="32">
         <v>55</v>
       </c>
-      <c r="BF7" s="34">
+      <c r="BF7" s="32">
         <v>56</v>
       </c>
-      <c r="BG7" s="34">
+      <c r="BG7" s="32">
         <v>57</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="32">
         <v>58</v>
       </c>
-      <c r="BI7" s="34">
+      <c r="BI7" s="32">
         <v>59</v>
       </c>
-      <c r="BJ7" s="34">
+      <c r="BJ7" s="32">
         <v>60</v>
       </c>
-      <c r="BK7" s="34">
+      <c r="BK7" s="32">
         <v>61</v>
       </c>
-      <c r="BL7" s="34">
+      <c r="BL7" s="32">
         <v>62</v>
       </c>
     </row>
@@ -4919,316 +4861,316 @@
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AH8" s="35" t="s">
+      <c r="AH8" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="AI8" s="35" t="s">
+      <c r="AI8" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="AJ8" s="35" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AK8" s="35" t="s">
+      <c r="AK8" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="35" t="s">
+      <c r="AL8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" s="35" t="s">
+      <c r="AM8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AN8" s="35" t="s">
+      <c r="AN8" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AO8" s="35" t="s">
+      <c r="AO8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AP8" s="35" t="s">
+      <c r="AP8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AQ8" s="35" t="s">
+      <c r="AQ8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="AS8" s="35" t="s">
+      <c r="AS8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="AT8" s="35" t="s">
+      <c r="AT8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AU8" s="35" t="s">
+      <c r="AU8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AV8" s="35" t="s">
+      <c r="AV8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="AW8" s="35" t="s">
+      <c r="AW8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="AX8" s="35" t="s">
+      <c r="AX8" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AY8" s="35" t="s">
+      <c r="AY8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AZ8" s="35" t="s">
+      <c r="AZ8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="BA8" s="35" t="s">
+      <c r="BA8" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BB8" s="35" t="s">
+      <c r="BB8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BC8" s="35" t="s">
+      <c r="BC8" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BD8" s="35" t="s">
+      <c r="BD8" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BE8" s="35" t="s">
+      <c r="BE8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="BG8" s="35" t="s">
+      <c r="BG8" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="BH8" s="35" t="s">
+      <c r="BH8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="BI8" s="35" t="s">
+      <c r="BI8" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="BJ8" s="35" t="s">
+      <c r="BJ8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="BK8" s="35" t="s">
+      <c r="BK8" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="BL8" s="35" t="s">
+      <c r="BL8" s="33" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:66">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="43" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="BN11" s="41" t="s">
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:66">
-      <c r="A12" s="64"/>
+    <row r="12" ht="13.5" spans="1:66">
+      <c r="A12" s="61"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="59"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="56"/>
       <c r="AQ12" s="4" t="s">
         <v>134</v>
       </c>
@@ -5250,20 +5192,20 @@
       <c r="BC12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
       <c r="BN12" s="14"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:66">
-      <c r="A13" s="64"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
         <v>137</v>
@@ -5356,7 +5298,7 @@
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
-      <c r="BD13" s="41" t="s">
+      <c r="BD13" s="39" t="s">
         <v>155</v>
       </c>
       <c r="BE13" s="10" t="s">
@@ -5389,8 +5331,8 @@
       <c r="BN13" s="14"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:66">
-      <c r="A14" s="65"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
@@ -5511,228 +5453,228 @@
       <c r="AP14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
     </row>
-    <row r="15" spans="1:66">
-      <c r="A15" s="65" t="s">
+    <row r="15" ht="13.5" spans="1:66">
+      <c r="A15" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="32">
         <v>63</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>64</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>65</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <v>66</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="32">
         <v>67</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="32">
         <v>68</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="32">
         <v>69</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="32">
         <v>70</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="32">
         <v>71</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="32">
         <v>72</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="32">
         <v>73</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="32">
         <v>74</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="32">
         <v>75</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="32">
         <v>76</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="32">
         <v>77</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="32">
         <v>78</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="32">
         <v>79</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="32">
         <v>80</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="32">
         <v>81</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="32">
         <v>82</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="32">
         <v>83</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="32">
         <v>84</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="32">
         <v>85</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="32">
         <v>86</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="32">
         <v>87</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="32">
         <v>88</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="32">
         <v>89</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="32">
         <v>90</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="32">
         <v>91</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="32">
         <v>92</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="32">
         <v>93</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="32">
         <v>94</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="32">
         <v>95</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="32">
         <v>96</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="32">
         <v>97</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="32">
         <v>98</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="32">
         <v>99</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="32">
         <v>100</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="32">
         <v>101</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="32">
         <v>102</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="32">
         <v>103</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="32">
         <v>104</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="32">
         <v>105</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="32">
         <v>106</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="32">
         <v>107</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="32">
         <v>108</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="32">
         <v>109</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="32">
         <v>110</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="32">
         <v>111</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="32">
         <v>112</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="32">
         <v>113</v>
       </c>
-      <c r="BB15" s="34">
+      <c r="BB15" s="32">
         <v>114</v>
       </c>
-      <c r="BC15" s="34">
+      <c r="BC15" s="32">
         <v>115</v>
       </c>
-      <c r="BD15" s="34">
+      <c r="BD15" s="32">
         <v>116</v>
       </c>
-      <c r="BE15" s="34">
+      <c r="BE15" s="32">
         <v>117</v>
       </c>
-      <c r="BF15" s="34">
+      <c r="BF15" s="32">
         <v>118</v>
       </c>
-      <c r="BG15" s="34">
+      <c r="BG15" s="32">
         <v>119</v>
       </c>
-      <c r="BH15" s="34">
+      <c r="BH15" s="32">
         <v>120</v>
       </c>
-      <c r="BI15" s="34">
+      <c r="BI15" s="32">
         <v>121</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BJ15" s="32">
         <v>122</v>
       </c>
-      <c r="BK15" s="34">
+      <c r="BK15" s="32">
         <v>123</v>
       </c>
-      <c r="BL15" s="34">
+      <c r="BL15" s="32">
         <v>124</v>
       </c>
-      <c r="BM15" s="34">
+      <c r="BM15" s="32">
         <v>125</v>
       </c>
-      <c r="BN15" s="34">
+      <c r="BN15" s="32">
         <v>126</v>
       </c>
     </row>
@@ -5743,196 +5685,196 @@
       <c r="B16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="V16" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AA16" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AB16" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AC16" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AE16" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AF16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AI16" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AL16" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AN16" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AO16" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AP16" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AQ16" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AR16" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AS16" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AT16" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AU16" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AV16" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="AW16" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="AY16" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="AZ16" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BA16" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BB16" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BC16" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BE16" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BF16" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BG16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BH16" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BI16" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="BJ16" s="35" t="s">
+      <c r="BJ16" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="BK16" s="35" t="s">
+      <c r="BK16" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="BL16" s="35" t="s">
+      <c r="BL16" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="BM16" s="35" t="s">
+      <c r="BM16" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="BN16" s="35" t="s">
+      <c r="BN16" s="33" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6028,104 +5970,104 @@
   <dimension ref="A1:XFA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="45" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="45" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="46" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="47" customWidth="1"/>
-    <col min="9" max="117" width="2.63333333333333" style="48" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="48" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="46" customWidth="1"/>
-    <col min="16382" max="16384" width="18.0916666666667" style="45"/>
+    <col min="1" max="1" width="4" style="42" customWidth="1"/>
+    <col min="2" max="2" width="2.63333333333333" style="42" customWidth="1"/>
+    <col min="3" max="6" width="2.63333333333333" style="43" customWidth="1"/>
+    <col min="7" max="8" width="2.63333333333333" style="44" customWidth="1"/>
+    <col min="9" max="117" width="2.63333333333333" style="45" customWidth="1"/>
+    <col min="118" max="16371" width="18.0916666666667" style="45" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0916666666667" style="43" customWidth="1"/>
+    <col min="16382" max="16384" width="18.0916666666667" style="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:65">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="46"/>
+      <c r="AZ1" s="46"/>
+      <c r="BA1" s="46"/>
+      <c r="BB1" s="46"/>
+      <c r="BC1" s="46"/>
+      <c r="BD1" s="46"/>
+      <c r="BE1" s="46"/>
+      <c r="BF1" s="46"/>
+      <c r="BG1" s="46"/>
+      <c r="BH1" s="46"/>
+      <c r="BI1" s="46"/>
+      <c r="BJ1" s="46"/>
+      <c r="BK1" s="46"/>
+      <c r="BL1" s="46"/>
+      <c r="BM1" s="46"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:64">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
@@ -6133,13 +6075,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
       <c r="P3" s="4" t="s">
         <v>33</v>
       </c>
@@ -6193,27 +6135,27 @@
       <c r="BL3" s="4"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:64">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="34" t="s">
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
       <c r="T4" s="4" t="s">
         <v>35</v>
       </c>
@@ -6263,13 +6205,13 @@
       <c r="BL4" s="4"/>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:64">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -6287,19 +6229,19 @@
       <c r="J5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="48" t="s">
         <v>47</v>
       </c>
       <c r="P5" s="10" t="s">
@@ -6314,90 +6256,90 @@
       <c r="S5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="57" t="s">
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="57" t="s">
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" s="58"/>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="58"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="57" t="s">
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="57" t="s">
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="AO5" s="58"/>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="57" t="s">
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="57" t="s">
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="59"/>
-      <c r="BC5" s="57" t="s">
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="59"/>
-      <c r="BH5" s="57" t="s">
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="58"/>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="59"/>
+      <c r="BI5" s="55"/>
+      <c r="BJ5" s="55"/>
+      <c r="BK5" s="55"/>
+      <c r="BL5" s="56"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:64">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="4" t="s">
         <v>61</v>
       </c>
@@ -6535,196 +6477,196 @@
       </c>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:64">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="53">
         <v>1</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="53">
         <v>2</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="53">
         <v>3</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="53">
         <v>4</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="53">
         <v>5</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="53">
         <v>6</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="53">
         <v>7</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="53">
         <v>8</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="53">
         <v>9</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="53">
         <v>10</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="53">
         <v>11</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="53">
         <v>12</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="53">
         <v>13</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="32">
         <v>14</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="32">
         <v>15</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="32">
         <v>16</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="32">
         <v>17</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="32">
         <v>18</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="32">
         <v>19</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="32">
         <v>20</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="32">
         <v>21</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="32">
         <v>22</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="32">
         <v>23</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="32">
         <v>24</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="32">
         <v>25</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="32">
         <v>26</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="32">
         <v>27</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="32">
         <v>28</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="32">
         <v>29</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="32">
         <v>30</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="32">
         <v>31</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="32">
         <v>32</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="32">
         <v>33</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="32">
         <v>34</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="32">
         <v>35</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="32">
         <v>36</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="32">
         <v>37</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="32">
         <v>38</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="32">
         <v>39</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="32">
         <v>40</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="32">
         <v>41</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="32">
         <v>42</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="32">
         <v>43</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="32">
         <v>44</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="32">
         <v>45</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="32">
         <v>46</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="32">
         <v>47</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="32">
         <v>48</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="32">
         <v>49</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="32">
         <v>50</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="32">
         <v>51</v>
       </c>
-      <c r="BB7" s="34">
+      <c r="BB7" s="32">
         <v>52</v>
       </c>
-      <c r="BC7" s="34">
+      <c r="BC7" s="32">
         <v>53</v>
       </c>
-      <c r="BD7" s="34">
+      <c r="BD7" s="32">
         <v>54</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="32">
         <v>55</v>
       </c>
-      <c r="BF7" s="34">
+      <c r="BF7" s="32">
         <v>56</v>
       </c>
-      <c r="BG7" s="34">
+      <c r="BG7" s="32">
         <v>57</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="32">
         <v>58</v>
       </c>
-      <c r="BI7" s="34">
+      <c r="BI7" s="32">
         <v>59</v>
       </c>
-      <c r="BJ7" s="34">
+      <c r="BJ7" s="32">
         <v>60</v>
       </c>
-      <c r="BK7" s="34">
+      <c r="BK7" s="32">
         <v>61</v>
       </c>
-      <c r="BL7" s="34">
+      <c r="BL7" s="32">
         <v>62</v>
       </c>
     </row>
@@ -6735,323 +6677,323 @@
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AH8" s="35" t="s">
+      <c r="AH8" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="AI8" s="35" t="s">
+      <c r="AI8" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="AJ8" s="35" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AK8" s="35" t="s">
+      <c r="AK8" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="35" t="s">
+      <c r="AL8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" s="35" t="s">
+      <c r="AM8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AN8" s="35" t="s">
+      <c r="AN8" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AO8" s="35" t="s">
+      <c r="AO8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AP8" s="35" t="s">
+      <c r="AP8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AQ8" s="35" t="s">
+      <c r="AQ8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="AS8" s="35" t="s">
+      <c r="AS8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="AT8" s="35" t="s">
+      <c r="AT8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AU8" s="35" t="s">
+      <c r="AU8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AV8" s="35" t="s">
+      <c r="AV8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="AW8" s="35" t="s">
+      <c r="AW8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="AX8" s="35" t="s">
+      <c r="AX8" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AY8" s="35" t="s">
+      <c r="AY8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AZ8" s="35" t="s">
+      <c r="AZ8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="BA8" s="35" t="s">
+      <c r="BA8" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BB8" s="35" t="s">
+      <c r="BB8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BC8" s="35" t="s">
+      <c r="BC8" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BD8" s="35" t="s">
+      <c r="BD8" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BE8" s="35" t="s">
+      <c r="BE8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="BG8" s="35" t="s">
+      <c r="BG8" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="BH8" s="35" t="s">
+      <c r="BH8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="BI8" s="35" t="s">
+      <c r="BI8" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="BJ8" s="35" t="s">
+      <c r="BJ8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="BK8" s="35" t="s">
+      <c r="BK8" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="BL8" s="35" t="s">
+      <c r="BL8" s="33" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16381">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="58"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="58"/>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="43" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="55"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
-      <c r="BI11" s="44"/>
-      <c r="BJ11" s="44"/>
-      <c r="BK11" s="44"/>
-      <c r="BL11" s="44"/>
-      <c r="BM11" s="44"/>
-      <c r="XEM11" s="46"/>
-      <c r="XEN11" s="46"/>
-      <c r="XEO11" s="46"/>
-      <c r="XEP11" s="46"/>
-      <c r="XEQ11" s="46"/>
-      <c r="XEW11" s="45"/>
-      <c r="XEX11" s="45"/>
-      <c r="XEY11" s="45"/>
-      <c r="XEZ11" s="45"/>
-      <c r="XFA11" s="45"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="XEM11" s="43"/>
+      <c r="XEN11" s="43"/>
+      <c r="XEO11" s="43"/>
+      <c r="XEP11" s="43"/>
+      <c r="XEQ11" s="43"/>
+      <c r="XEW11" s="42"/>
+      <c r="XEX11" s="42"/>
+      <c r="XEY11" s="42"/>
+      <c r="XEZ11" s="42"/>
+      <c r="XFA11" s="42"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:16381">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="57" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="59"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="56"/>
       <c r="AQ12" s="4" t="s">
         <v>134</v>
       </c>
@@ -7073,30 +7015,30 @@
       <c r="BC12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="XEM12" s="46"/>
-      <c r="XEN12" s="46"/>
-      <c r="XEO12" s="46"/>
-      <c r="XEP12" s="46"/>
-      <c r="XEQ12" s="46"/>
-      <c r="XEW12" s="45"/>
-      <c r="XEX12" s="45"/>
-      <c r="XEY12" s="45"/>
-      <c r="XEZ12" s="45"/>
-      <c r="XFA12" s="45"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="XEM12" s="43"/>
+      <c r="XEN12" s="43"/>
+      <c r="XEO12" s="43"/>
+      <c r="XEP12" s="43"/>
+      <c r="XEQ12" s="43"/>
+      <c r="XEW12" s="42"/>
+      <c r="XEX12" s="42"/>
+      <c r="XEY12" s="42"/>
+      <c r="XEZ12" s="42"/>
+      <c r="XFA12" s="42"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:16381">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="4" t="s">
         <v>137</v>
       </c>
@@ -7188,7 +7130,7 @@
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
-      <c r="BD13" s="41" t="s">
+      <c r="BD13" s="39" t="s">
         <v>155</v>
       </c>
       <c r="BE13" s="10" t="s">
@@ -7218,20 +7160,20 @@
       <c r="BM13" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="XEM13" s="46"/>
-      <c r="XEN13" s="46"/>
-      <c r="XEO13" s="46"/>
-      <c r="XEP13" s="46"/>
-      <c r="XEQ13" s="46"/>
-      <c r="XEW13" s="45"/>
-      <c r="XEX13" s="45"/>
-      <c r="XEY13" s="45"/>
-      <c r="XEZ13" s="45"/>
-      <c r="XFA13" s="45"/>
+      <c r="XEM13" s="43"/>
+      <c r="XEN13" s="43"/>
+      <c r="XEO13" s="43"/>
+      <c r="XEP13" s="43"/>
+      <c r="XEQ13" s="43"/>
+      <c r="XEW13" s="42"/>
+      <c r="XEX13" s="42"/>
+      <c r="XEY13" s="42"/>
+      <c r="XEZ13" s="42"/>
+      <c r="XFA13" s="42"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:16381">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
@@ -7352,246 +7294,246 @@
       <c r="AP14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="XEM14" s="46"/>
-      <c r="XEN14" s="46"/>
-      <c r="XEO14" s="46"/>
-      <c r="XEP14" s="46"/>
-      <c r="XEQ14" s="46"/>
-      <c r="XEW14" s="45"/>
-      <c r="XEX14" s="45"/>
-      <c r="XEY14" s="45"/>
-      <c r="XEZ14" s="45"/>
-      <c r="XFA14" s="45"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="32"/>
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="XEM14" s="43"/>
+      <c r="XEN14" s="43"/>
+      <c r="XEO14" s="43"/>
+      <c r="XEP14" s="43"/>
+      <c r="XEQ14" s="43"/>
+      <c r="XEW14" s="42"/>
+      <c r="XEX14" s="42"/>
+      <c r="XEY14" s="42"/>
+      <c r="XEZ14" s="42"/>
+      <c r="XFA14" s="42"/>
     </row>
     <row r="15" spans="1:16381">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="32">
         <v>63</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>64</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>65</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <v>66</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="32">
         <v>67</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="32">
         <v>68</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="32">
         <v>69</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="32">
         <v>70</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="32">
         <v>71</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="32">
         <v>72</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="32">
         <v>73</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="32">
         <v>74</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="32">
         <v>75</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="32">
         <v>76</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="32">
         <v>77</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="32">
         <v>78</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="32">
         <v>79</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="32">
         <v>80</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="32">
         <v>81</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="32">
         <v>82</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="32">
         <v>83</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="32">
         <v>84</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="32">
         <v>85</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="32">
         <v>86</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="32">
         <v>87</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="32">
         <v>88</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="32">
         <v>89</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="32">
         <v>90</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="32">
         <v>91</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="32">
         <v>92</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="32">
         <v>93</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="32">
         <v>94</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="32">
         <v>95</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="32">
         <v>96</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="32">
         <v>97</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="32">
         <v>98</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="32">
         <v>99</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="32">
         <v>100</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="32">
         <v>101</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="32">
         <v>102</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="32">
         <v>103</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="32">
         <v>104</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="32">
         <v>105</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="32">
         <v>106</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="32">
         <v>107</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="32">
         <v>108</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="32">
         <v>109</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="32">
         <v>110</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="32">
         <v>111</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="32">
         <v>112</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="32">
         <v>113</v>
       </c>
-      <c r="BB15" s="34">
+      <c r="BB15" s="32">
         <v>114</v>
       </c>
-      <c r="BC15" s="34">
+      <c r="BC15" s="32">
         <v>115</v>
       </c>
-      <c r="BD15" s="34">
+      <c r="BD15" s="32">
         <v>116</v>
       </c>
-      <c r="BE15" s="34">
+      <c r="BE15" s="32">
         <v>117</v>
       </c>
-      <c r="BF15" s="34">
+      <c r="BF15" s="32">
         <v>118</v>
       </c>
-      <c r="BG15" s="34">
+      <c r="BG15" s="32">
         <v>119</v>
       </c>
-      <c r="BH15" s="34">
+      <c r="BH15" s="32">
         <v>120</v>
       </c>
-      <c r="BI15" s="34">
+      <c r="BI15" s="32">
         <v>121</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BJ15" s="32">
         <v>122</v>
       </c>
-      <c r="BK15" s="34">
+      <c r="BK15" s="32">
         <v>123</v>
       </c>
-      <c r="BL15" s="34">
+      <c r="BL15" s="32">
         <v>124</v>
       </c>
-      <c r="BM15" s="34">
+      <c r="BM15" s="32">
         <v>125</v>
       </c>
-      <c r="XEM15" s="46"/>
-      <c r="XEN15" s="46"/>
-      <c r="XEO15" s="46"/>
-      <c r="XEP15" s="46"/>
-      <c r="XEQ15" s="46"/>
-      <c r="XEW15" s="45"/>
-      <c r="XEX15" s="45"/>
-      <c r="XEY15" s="45"/>
-      <c r="XEZ15" s="45"/>
-      <c r="XFA15" s="45"/>
+      <c r="XEM15" s="43"/>
+      <c r="XEN15" s="43"/>
+      <c r="XEO15" s="43"/>
+      <c r="XEP15" s="43"/>
+      <c r="XEQ15" s="43"/>
+      <c r="XEW15" s="42"/>
+      <c r="XEX15" s="42"/>
+      <c r="XEY15" s="42"/>
+      <c r="XEZ15" s="42"/>
+      <c r="XFA15" s="42"/>
     </row>
     <row r="16" ht="63" spans="1:16381">
       <c r="A16" s="7" t="s">
@@ -7600,205 +7542,205 @@
       <c r="B16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="V16" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AA16" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AB16" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AC16" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AE16" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AF16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AI16" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AL16" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AN16" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AO16" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AP16" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AQ16" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AR16" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AS16" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AT16" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AU16" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AV16" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="AW16" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="AY16" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="AZ16" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BA16" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BB16" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BC16" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BE16" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BF16" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BG16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BH16" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BI16" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="BJ16" s="35" t="s">
+      <c r="BJ16" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="BK16" s="35" t="s">
+      <c r="BK16" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="BL16" s="35" t="s">
+      <c r="BL16" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="BM16" s="35" t="s">
+      <c r="BM16" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="XEM16" s="46"/>
-      <c r="XEN16" s="46"/>
-      <c r="XEO16" s="46"/>
-      <c r="XEP16" s="46"/>
-      <c r="XEQ16" s="46"/>
-      <c r="XEW16" s="45"/>
-      <c r="XEX16" s="45"/>
-      <c r="XEY16" s="45"/>
-      <c r="XEZ16" s="45"/>
-      <c r="XFA16" s="45"/>
+      <c r="XEM16" s="43"/>
+      <c r="XEN16" s="43"/>
+      <c r="XEO16" s="43"/>
+      <c r="XEP16" s="43"/>
+      <c r="XEQ16" s="43"/>
+      <c r="XEW16" s="42"/>
+      <c r="XEX16" s="42"/>
+      <c r="XEY16" s="42"/>
+      <c r="XEZ16" s="42"/>
+      <c r="XFA16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="73">
@@ -7890,56 +7832,56 @@
   <sheetPr/>
   <dimension ref="A1:XFA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="2.63333333333333" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="24" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="9" max="34" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="35" max="35" width="3.25833333333333" style="26" customWidth="1"/>
-    <col min="36" max="36" width="3.59166666666667" style="26" customWidth="1"/>
-    <col min="37" max="37" width="3.475" style="26" customWidth="1"/>
-    <col min="38" max="38" width="3.7" style="26" customWidth="1"/>
-    <col min="39" max="39" width="3.15" style="26" customWidth="1"/>
-    <col min="40" max="40" width="3.8" style="26" customWidth="1"/>
-    <col min="41" max="41" width="3.48333333333333" style="26" customWidth="1"/>
-    <col min="42" max="42" width="3.25833333333333" style="26" customWidth="1"/>
-    <col min="43" max="43" width="3.15" style="26" customWidth="1"/>
-    <col min="44" max="44" width="3.48333333333333" style="26" customWidth="1"/>
-    <col min="45" max="45" width="3.25833333333333" style="26" customWidth="1"/>
-    <col min="46" max="46" width="3.15" style="26" customWidth="1"/>
-    <col min="47" max="47" width="3.375" style="26" customWidth="1"/>
-    <col min="48" max="49" width="3.58333333333333" style="26" customWidth="1"/>
-    <col min="50" max="50" width="3.475" style="26" customWidth="1"/>
-    <col min="51" max="51" width="3.25833333333333" style="26" customWidth="1"/>
-    <col min="52" max="52" width="3.15" style="26" customWidth="1"/>
-    <col min="53" max="53" width="3.36666666666667" style="26" customWidth="1"/>
-    <col min="54" max="54" width="3.475" style="26" customWidth="1"/>
-    <col min="55" max="55" width="3.375" style="26" customWidth="1"/>
-    <col min="56" max="56" width="3.58333333333333" style="26" customWidth="1"/>
-    <col min="57" max="57" width="3.475" style="26" customWidth="1"/>
-    <col min="58" max="58" width="3.375" style="26" customWidth="1"/>
-    <col min="59" max="59" width="3.69166666666667" style="26" customWidth="1"/>
-    <col min="60" max="60" width="3.7" style="26" customWidth="1"/>
-    <col min="61" max="61" width="3.90833333333333" style="26" customWidth="1"/>
-    <col min="62" max="62" width="3.475" style="26" customWidth="1"/>
-    <col min="63" max="63" width="3.15" style="26" customWidth="1"/>
-    <col min="64" max="64" width="3.58333333333333" style="26" customWidth="1"/>
-    <col min="65" max="65" width="3.375" style="26" customWidth="1"/>
-    <col min="66" max="67" width="3.36666666666667" style="26" customWidth="1"/>
-    <col min="68" max="68" width="3.26666666666667" style="26" customWidth="1"/>
-    <col min="69" max="69" width="3.36666666666667" style="26" customWidth="1"/>
-    <col min="70" max="70" width="3.475" style="26" customWidth="1"/>
-    <col min="71" max="71" width="3.375" style="26" customWidth="1"/>
-    <col min="72" max="72" width="3.69166666666667" style="26" customWidth="1"/>
-    <col min="73" max="117" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="26" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="24" customWidth="1"/>
+    <col min="3" max="6" width="2.63333333333333" style="22" customWidth="1"/>
+    <col min="7" max="8" width="2.63333333333333" style="23" customWidth="1"/>
+    <col min="9" max="34" width="2.63333333333333" style="24" customWidth="1"/>
+    <col min="35" max="35" width="3.25833333333333" style="24" customWidth="1"/>
+    <col min="36" max="36" width="3.59166666666667" style="24" customWidth="1"/>
+    <col min="37" max="37" width="3.475" style="24" customWidth="1"/>
+    <col min="38" max="38" width="3.7" style="24" customWidth="1"/>
+    <col min="39" max="39" width="3.15" style="24" customWidth="1"/>
+    <col min="40" max="40" width="3.8" style="24" customWidth="1"/>
+    <col min="41" max="41" width="3.48333333333333" style="24" customWidth="1"/>
+    <col min="42" max="42" width="3.25833333333333" style="24" customWidth="1"/>
+    <col min="43" max="43" width="3.15" style="24" customWidth="1"/>
+    <col min="44" max="44" width="3.48333333333333" style="24" customWidth="1"/>
+    <col min="45" max="45" width="3.25833333333333" style="24" customWidth="1"/>
+    <col min="46" max="46" width="3.15" style="24" customWidth="1"/>
+    <col min="47" max="47" width="3.375" style="24" customWidth="1"/>
+    <col min="48" max="49" width="3.58333333333333" style="24" customWidth="1"/>
+    <col min="50" max="50" width="3.475" style="24" customWidth="1"/>
+    <col min="51" max="51" width="3.25833333333333" style="24" customWidth="1"/>
+    <col min="52" max="52" width="3.15" style="24" customWidth="1"/>
+    <col min="53" max="53" width="3.36666666666667" style="24" customWidth="1"/>
+    <col min="54" max="54" width="3.475" style="24" customWidth="1"/>
+    <col min="55" max="55" width="3.375" style="24" customWidth="1"/>
+    <col min="56" max="56" width="3.58333333333333" style="24" customWidth="1"/>
+    <col min="57" max="57" width="3.475" style="24" customWidth="1"/>
+    <col min="58" max="58" width="3.375" style="24" customWidth="1"/>
+    <col min="59" max="59" width="3.69166666666667" style="24" customWidth="1"/>
+    <col min="60" max="60" width="3.7" style="24" customWidth="1"/>
+    <col min="61" max="61" width="3.90833333333333" style="24" customWidth="1"/>
+    <col min="62" max="62" width="3.475" style="24" customWidth="1"/>
+    <col min="63" max="63" width="3.15" style="24" customWidth="1"/>
+    <col min="64" max="64" width="3.58333333333333" style="24" customWidth="1"/>
+    <col min="65" max="65" width="3.375" style="24" customWidth="1"/>
+    <col min="66" max="67" width="3.36666666666667" style="24" customWidth="1"/>
+    <col min="68" max="68" width="3.26666666666667" style="24" customWidth="1"/>
+    <col min="69" max="69" width="3.36666666666667" style="24" customWidth="1"/>
+    <col min="70" max="70" width="3.475" style="24" customWidth="1"/>
+    <col min="71" max="71" width="3.375" style="24" customWidth="1"/>
+    <col min="72" max="72" width="3.69166666666667" style="24" customWidth="1"/>
+    <col min="73" max="117" width="2.63333333333333" style="24" customWidth="1"/>
+    <col min="118" max="16371" width="18.0916666666667" style="24" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0916666666667" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:72">
@@ -8019,19 +7961,19 @@
       <c r="BT1" s="1"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:69">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
@@ -8039,13 +7981,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
       <c r="P3" s="6" t="s">
         <v>240</v>
       </c>
@@ -8104,21 +8046,21 @@
       <c r="BQ3" s="6"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:69">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="6" t="s">
         <v>241</v>
       </c>
@@ -8179,13 +8121,13 @@
       <c r="BQ4" s="6"/>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:69">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="25" t="s">
         <v>244</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -8203,19 +8145,19 @@
       <c r="J5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="26" t="s">
         <v>249</v>
       </c>
       <c r="P5" s="13" t="s">
@@ -8230,69 +8172,69 @@
       <c r="S5" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="36" t="s">
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="36" t="s">
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="36" t="s">
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="36" t="s">
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="36" t="s">
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="36" t="s">
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="36" t="s">
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="36" t="s">
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="37"/>
+      <c r="BH5" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="BI5" s="37"/>
-      <c r="BJ5" s="37"/>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="39"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="37"/>
       <c r="BM5" s="6" t="s">
         <v>261</v>
       </c>
@@ -8302,25 +8244,25 @@
       <c r="BQ5" s="6"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:69">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="6" t="s">
         <v>262</v>
       </c>
@@ -8473,211 +8415,211 @@
       </c>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:69">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="31">
         <v>4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="31">
         <v>5</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>6</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>7</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="31">
         <v>8</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="31">
         <v>9</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="31">
         <v>10</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="31">
         <v>11</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="31">
         <v>12</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="31">
         <v>13</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7" s="36">
         <v>14</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7" s="36">
         <v>15</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="36">
         <v>16</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="36">
         <v>17</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7" s="36">
         <v>18</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="36">
         <v>19</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="36">
         <v>20</v>
       </c>
-      <c r="W7" s="38">
+      <c r="W7" s="36">
         <v>21</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X7" s="36">
         <v>22</v>
       </c>
-      <c r="Y7" s="38">
+      <c r="Y7" s="36">
         <v>23</v>
       </c>
-      <c r="Z7" s="38">
+      <c r="Z7" s="36">
         <v>24</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="36">
         <v>25</v>
       </c>
-      <c r="AB7" s="38">
+      <c r="AB7" s="36">
         <v>26</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AC7" s="36">
         <v>27</v>
       </c>
-      <c r="AD7" s="38">
+      <c r="AD7" s="36">
         <v>28</v>
       </c>
-      <c r="AE7" s="38">
+      <c r="AE7" s="36">
         <v>29</v>
       </c>
-      <c r="AF7" s="38">
+      <c r="AF7" s="36">
         <v>30</v>
       </c>
-      <c r="AG7" s="38">
+      <c r="AG7" s="36">
         <v>31</v>
       </c>
-      <c r="AH7" s="38">
+      <c r="AH7" s="36">
         <v>32</v>
       </c>
-      <c r="AI7" s="38">
+      <c r="AI7" s="36">
         <v>33</v>
       </c>
-      <c r="AJ7" s="38">
+      <c r="AJ7" s="36">
         <v>34</v>
       </c>
-      <c r="AK7" s="38">
+      <c r="AK7" s="36">
         <v>35</v>
       </c>
-      <c r="AL7" s="38">
+      <c r="AL7" s="36">
         <v>36</v>
       </c>
-      <c r="AM7" s="38">
+      <c r="AM7" s="36">
         <v>37</v>
       </c>
-      <c r="AN7" s="38">
+      <c r="AN7" s="36">
         <v>38</v>
       </c>
-      <c r="AO7" s="38">
+      <c r="AO7" s="36">
         <v>39</v>
       </c>
-      <c r="AP7" s="38">
+      <c r="AP7" s="36">
         <v>40</v>
       </c>
-      <c r="AQ7" s="38">
+      <c r="AQ7" s="36">
         <v>41</v>
       </c>
-      <c r="AR7" s="38">
+      <c r="AR7" s="36">
         <v>42</v>
       </c>
-      <c r="AS7" s="38">
+      <c r="AS7" s="36">
         <v>43</v>
       </c>
-      <c r="AT7" s="38">
+      <c r="AT7" s="36">
         <v>44</v>
       </c>
-      <c r="AU7" s="38">
+      <c r="AU7" s="36">
         <v>45</v>
       </c>
-      <c r="AV7" s="38">
+      <c r="AV7" s="36">
         <v>46</v>
       </c>
-      <c r="AW7" s="38">
+      <c r="AW7" s="36">
         <v>47</v>
       </c>
-      <c r="AX7" s="38">
+      <c r="AX7" s="36">
         <v>48</v>
       </c>
-      <c r="AY7" s="38">
+      <c r="AY7" s="36">
         <v>49</v>
       </c>
-      <c r="AZ7" s="38">
+      <c r="AZ7" s="36">
         <v>50</v>
       </c>
-      <c r="BA7" s="38">
+      <c r="BA7" s="36">
         <v>51</v>
       </c>
-      <c r="BB7" s="38">
+      <c r="BB7" s="36">
         <v>52</v>
       </c>
-      <c r="BC7" s="38">
+      <c r="BC7" s="36">
         <v>53</v>
       </c>
-      <c r="BD7" s="38">
+      <c r="BD7" s="36">
         <v>54</v>
       </c>
-      <c r="BE7" s="38">
+      <c r="BE7" s="36">
         <v>55</v>
       </c>
-      <c r="BF7" s="38">
+      <c r="BF7" s="36">
         <v>56</v>
       </c>
-      <c r="BG7" s="38">
+      <c r="BG7" s="36">
         <v>57</v>
       </c>
-      <c r="BH7" s="38">
+      <c r="BH7" s="36">
         <v>58</v>
       </c>
-      <c r="BI7" s="38">
+      <c r="BI7" s="36">
         <v>59</v>
       </c>
-      <c r="BJ7" s="38">
+      <c r="BJ7" s="36">
         <v>60</v>
       </c>
-      <c r="BK7" s="38">
+      <c r="BK7" s="36">
         <v>61</v>
       </c>
-      <c r="BL7" s="38">
+      <c r="BL7" s="36">
         <v>62</v>
       </c>
-      <c r="BM7" s="38">
+      <c r="BM7" s="36">
         <v>63</v>
       </c>
-      <c r="BN7" s="38">
+      <c r="BN7" s="36">
         <v>64</v>
       </c>
-      <c r="BO7" s="38">
+      <c r="BO7" s="36">
         <v>65</v>
       </c>
-      <c r="BP7" s="38">
+      <c r="BP7" s="36">
         <v>66</v>
       </c>
-      <c r="BQ7" s="38">
+      <c r="BQ7" s="36">
         <v>67</v>
       </c>
     </row>
@@ -8688,277 +8630,277 @@
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="R8" s="35" t="s">
+      <c r="R8" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="35" t="s">
+      <c r="S8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="35" t="s">
+      <c r="T8" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="X8" s="35" t="s">
+      <c r="X8" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="35" t="s">
+      <c r="Z8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="AH8" s="35" t="s">
+      <c r="AH8" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="AI8" s="35" t="s">
+      <c r="AI8" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="AJ8" s="35" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="AK8" s="35" t="s">
+      <c r="AK8" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="35" t="s">
+      <c r="AL8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="AM8" s="35" t="s">
+      <c r="AM8" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="AN8" s="35" t="s">
+      <c r="AN8" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="AO8" s="35" t="s">
+      <c r="AO8" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="AP8" s="35" t="s">
+      <c r="AP8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="AQ8" s="35" t="s">
+      <c r="AQ8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AR8" s="35" t="s">
+      <c r="AR8" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="AS8" s="35" t="s">
+      <c r="AS8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="AT8" s="35" t="s">
+      <c r="AT8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AU8" s="35" t="s">
+      <c r="AU8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AV8" s="35" t="s">
+      <c r="AV8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="AW8" s="35" t="s">
+      <c r="AW8" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="AX8" s="35" t="s">
+      <c r="AX8" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AY8" s="35" t="s">
+      <c r="AY8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AZ8" s="35" t="s">
+      <c r="AZ8" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="BA8" s="35" t="s">
+      <c r="BA8" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="BB8" s="35" t="s">
+      <c r="BB8" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="BC8" s="35" t="s">
+      <c r="BC8" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="BD8" s="35" t="s">
+      <c r="BD8" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="BE8" s="35" t="s">
+      <c r="BE8" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="BG8" s="35" t="s">
+      <c r="BG8" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="BH8" s="35" t="s">
+      <c r="BH8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="BI8" s="35" t="s">
+      <c r="BI8" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="BJ8" s="35" t="s">
+      <c r="BJ8" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="BK8" s="35" t="s">
+      <c r="BK8" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="BL8" s="35" t="s">
+      <c r="BL8" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="BM8" s="35" t="s">
+      <c r="BM8" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="BN8" s="35" t="s">
+      <c r="BN8" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="BO8" s="35" t="s">
+      <c r="BO8" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="BP8" s="35" t="s">
+      <c r="BP8" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="BQ8" s="35" t="s">
+      <c r="BQ8" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16381">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="43" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="37"/>
+      <c r="AY11" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="AZ11" s="44"/>
-      <c r="BA11" s="44"/>
-      <c r="BB11" s="44"/>
-      <c r="BC11" s="44"/>
-      <c r="BD11" s="44"/>
-      <c r="BE11" s="44"/>
-      <c r="BF11" s="44"/>
-      <c r="BG11" s="44"/>
-      <c r="BH11" s="44"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
       <c r="BI11" s="5" t="s">
         <v>270</v>
       </c>
@@ -8973,16 +8915,16 @@
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
       <c r="BT11" s="5"/>
-      <c r="XEH11" s="24"/>
-      <c r="XEI11" s="24"/>
-      <c r="XEJ11" s="24"/>
-      <c r="XEK11" s="24"/>
-      <c r="XEL11" s="24"/>
-      <c r="XEM11" s="24"/>
-      <c r="XEN11" s="24"/>
-      <c r="XEO11" s="24"/>
-      <c r="XEP11" s="24"/>
-      <c r="XEQ11" s="24"/>
+      <c r="XEH11" s="22"/>
+      <c r="XEI11" s="22"/>
+      <c r="XEJ11" s="22"/>
+      <c r="XEK11" s="22"/>
+      <c r="XEL11" s="22"/>
+      <c r="XEM11" s="22"/>
+      <c r="XEN11" s="22"/>
+      <c r="XEO11" s="22"/>
+      <c r="XEP11" s="22"/>
+      <c r="XEQ11" s="22"/>
       <c r="XER11"/>
       <c r="XES11"/>
       <c r="XET11"/>
@@ -8995,45 +8937,45 @@
       <c r="XFA11"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:16381">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="39"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="37"/>
       <c r="AL12" s="6" t="s">
         <v>271</v>
       </c>
@@ -9055,16 +8997,16 @@
       <c r="AX12" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
@@ -9077,16 +9019,16 @@
       <c r="BR12" s="5"/>
       <c r="BS12" s="5"/>
       <c r="BT12" s="5"/>
-      <c r="XEH12" s="24"/>
-      <c r="XEI12" s="24"/>
-      <c r="XEJ12" s="24"/>
-      <c r="XEK12" s="24"/>
-      <c r="XEL12" s="24"/>
-      <c r="XEM12" s="24"/>
-      <c r="XEN12" s="24"/>
-      <c r="XEO12" s="24"/>
-      <c r="XEP12" s="24"/>
-      <c r="XEQ12" s="24"/>
+      <c r="XEH12" s="22"/>
+      <c r="XEI12" s="22"/>
+      <c r="XEJ12" s="22"/>
+      <c r="XEK12" s="22"/>
+      <c r="XEL12" s="22"/>
+      <c r="XEM12" s="22"/>
+      <c r="XEN12" s="22"/>
+      <c r="XEO12" s="22"/>
+      <c r="XEP12" s="22"/>
+      <c r="XEQ12" s="22"/>
       <c r="XER12"/>
       <c r="XES12"/>
       <c r="XET12"/>
@@ -9099,8 +9041,8 @@
       <c r="XFA12"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:16381">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
         <v>274</v>
       </c>
@@ -9165,7 +9107,7 @@
       <c r="AP13" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="AQ13" s="41" t="s">
+      <c r="AQ13" s="39" t="s">
         <v>266</v>
       </c>
       <c r="AR13" s="13" t="s">
@@ -9185,7 +9127,7 @@
       </c>
       <c r="AW13" s="17"/>
       <c r="AX13" s="17"/>
-      <c r="AY13" s="41" t="s">
+      <c r="AY13" s="39" t="s">
         <v>155</v>
       </c>
       <c r="AZ13" s="10" t="s">
@@ -9251,16 +9193,16 @@
       <c r="BT13" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="XEH13" s="24"/>
-      <c r="XEI13" s="24"/>
-      <c r="XEJ13" s="24"/>
-      <c r="XEK13" s="24"/>
-      <c r="XEL13" s="24"/>
-      <c r="XEM13" s="24"/>
-      <c r="XEN13" s="24"/>
-      <c r="XEO13" s="24"/>
-      <c r="XEP13" s="24"/>
-      <c r="XEQ13" s="24"/>
+      <c r="XEH13" s="22"/>
+      <c r="XEI13" s="22"/>
+      <c r="XEJ13" s="22"/>
+      <c r="XEK13" s="22"/>
+      <c r="XEL13" s="22"/>
+      <c r="XEM13" s="22"/>
+      <c r="XEN13" s="22"/>
+      <c r="XEO13" s="22"/>
+      <c r="XEP13" s="22"/>
+      <c r="XEQ13" s="22"/>
       <c r="XER13"/>
       <c r="XES13"/>
       <c r="XET13"/>
@@ -9273,8 +9215,8 @@
       <c r="XFA13"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:16381">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="6" t="s">
         <v>262</v>
       </c>
@@ -9380,51 +9322,51 @@
       <c r="AK14" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="42"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="38"/>
-      <c r="BJ14" s="38"/>
-      <c r="BK14" s="38"/>
-      <c r="BL14" s="38"/>
-      <c r="BM14" s="38"/>
-      <c r="BN14" s="38"/>
-      <c r="BO14" s="38"/>
-      <c r="BP14" s="38"/>
-      <c r="BQ14" s="38"/>
-      <c r="BR14" s="38"/>
-      <c r="BS14" s="38"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="36"/>
+      <c r="BJ14" s="36"/>
+      <c r="BK14" s="36"/>
+      <c r="BL14" s="36"/>
+      <c r="BM14" s="36"/>
+      <c r="BN14" s="36"/>
+      <c r="BO14" s="36"/>
+      <c r="BP14" s="36"/>
+      <c r="BQ14" s="36"/>
+      <c r="BR14" s="36"/>
+      <c r="BS14" s="36"/>
       <c r="BT14" s="6"/>
-      <c r="XEH14" s="24"/>
-      <c r="XEI14" s="24"/>
-      <c r="XEJ14" s="24"/>
-      <c r="XEK14" s="24"/>
-      <c r="XEL14" s="24"/>
-      <c r="XEM14" s="24"/>
-      <c r="XEN14" s="24"/>
-      <c r="XEO14" s="24"/>
-      <c r="XEP14" s="24"/>
-      <c r="XEQ14" s="24"/>
+      <c r="XEH14" s="22"/>
+      <c r="XEI14" s="22"/>
+      <c r="XEJ14" s="22"/>
+      <c r="XEK14" s="22"/>
+      <c r="XEL14" s="22"/>
+      <c r="XEM14" s="22"/>
+      <c r="XEN14" s="22"/>
+      <c r="XEO14" s="22"/>
+      <c r="XEP14" s="22"/>
+      <c r="XEQ14" s="22"/>
       <c r="XER14"/>
       <c r="XES14"/>
       <c r="XET14"/>
@@ -9437,232 +9379,232 @@
       <c r="XFA14"/>
     </row>
     <row r="15" spans="1:16381">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="36">
         <v>68</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>69</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="36">
         <v>70</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>71</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="36">
         <v>72</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <v>73</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>74</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <v>75</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>76</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>77</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="36">
         <v>78</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="36">
         <v>79</v>
       </c>
-      <c r="O15" s="38">
+      <c r="O15" s="36">
         <v>80</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="36">
         <v>81</v>
       </c>
-      <c r="Q15" s="38">
+      <c r="Q15" s="36">
         <v>82</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="36">
         <v>83</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="36">
         <v>84</v>
       </c>
-      <c r="T15" s="38">
+      <c r="T15" s="36">
         <v>85</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="36">
         <v>86</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="36">
         <v>87</v>
       </c>
-      <c r="W15" s="38">
+      <c r="W15" s="36">
         <v>88</v>
       </c>
-      <c r="X15" s="38">
+      <c r="X15" s="36">
         <v>89</v>
       </c>
-      <c r="Y15" s="38">
+      <c r="Y15" s="36">
         <v>90</v>
       </c>
-      <c r="Z15" s="38">
+      <c r="Z15" s="36">
         <v>91</v>
       </c>
-      <c r="AA15" s="38">
+      <c r="AA15" s="36">
         <v>92</v>
       </c>
-      <c r="AB15" s="38">
+      <c r="AB15" s="36">
         <v>93</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="36">
         <v>94</v>
       </c>
-      <c r="AD15" s="38">
+      <c r="AD15" s="36">
         <v>95</v>
       </c>
-      <c r="AE15" s="38">
+      <c r="AE15" s="36">
         <v>96</v>
       </c>
-      <c r="AF15" s="38">
+      <c r="AF15" s="36">
         <v>97</v>
       </c>
-      <c r="AG15" s="38">
+      <c r="AG15" s="36">
         <v>98</v>
       </c>
-      <c r="AH15" s="38">
+      <c r="AH15" s="36">
         <v>99</v>
       </c>
-      <c r="AI15" s="40">
+      <c r="AI15" s="38">
         <v>100</v>
       </c>
-      <c r="AJ15" s="40">
+      <c r="AJ15" s="38">
         <v>101</v>
       </c>
-      <c r="AK15" s="40">
+      <c r="AK15" s="38">
         <v>102</v>
       </c>
-      <c r="AL15" s="40">
+      <c r="AL15" s="38">
         <v>103</v>
       </c>
-      <c r="AM15" s="40">
+      <c r="AM15" s="38">
         <v>104</v>
       </c>
-      <c r="AN15" s="40">
+      <c r="AN15" s="38">
         <v>105</v>
       </c>
-      <c r="AO15" s="40">
+      <c r="AO15" s="38">
         <v>106</v>
       </c>
-      <c r="AP15" s="40">
+      <c r="AP15" s="38">
         <v>107</v>
       </c>
-      <c r="AQ15" s="40">
+      <c r="AQ15" s="38">
         <v>108</v>
       </c>
-      <c r="AR15" s="40">
+      <c r="AR15" s="38">
         <v>109</v>
       </c>
-      <c r="AS15" s="40">
+      <c r="AS15" s="38">
         <v>110</v>
       </c>
-      <c r="AT15" s="40">
+      <c r="AT15" s="38">
         <v>111</v>
       </c>
-      <c r="AU15" s="40">
+      <c r="AU15" s="38">
         <v>112</v>
       </c>
-      <c r="AV15" s="40">
+      <c r="AV15" s="38">
         <v>113</v>
       </c>
-      <c r="AW15" s="40">
+      <c r="AW15" s="38">
         <v>114</v>
       </c>
-      <c r="AX15" s="40">
+      <c r="AX15" s="38">
         <v>115</v>
       </c>
-      <c r="AY15" s="40">
+      <c r="AY15" s="38">
         <v>116</v>
       </c>
-      <c r="AZ15" s="40">
+      <c r="AZ15" s="38">
         <v>117</v>
       </c>
-      <c r="BA15" s="40">
+      <c r="BA15" s="38">
         <v>118</v>
       </c>
-      <c r="BB15" s="40">
+      <c r="BB15" s="38">
         <v>119</v>
       </c>
-      <c r="BC15" s="40">
+      <c r="BC15" s="38">
         <v>120</v>
       </c>
-      <c r="BD15" s="40">
+      <c r="BD15" s="38">
         <v>121</v>
       </c>
-      <c r="BE15" s="40">
+      <c r="BE15" s="38">
         <v>122</v>
       </c>
-      <c r="BF15" s="40">
+      <c r="BF15" s="38">
         <v>123</v>
       </c>
-      <c r="BG15" s="40">
+      <c r="BG15" s="38">
         <v>124</v>
       </c>
-      <c r="BH15" s="40">
+      <c r="BH15" s="38">
         <v>125</v>
       </c>
-      <c r="BI15" s="40">
+      <c r="BI15" s="38">
         <v>126</v>
       </c>
-      <c r="BJ15" s="40">
+      <c r="BJ15" s="38">
         <v>127</v>
       </c>
-      <c r="BK15" s="40">
+      <c r="BK15" s="38">
         <v>128</v>
       </c>
-      <c r="BL15" s="40">
+      <c r="BL15" s="38">
         <v>129</v>
       </c>
-      <c r="BM15" s="40">
+      <c r="BM15" s="38">
         <v>130</v>
       </c>
-      <c r="BN15" s="40">
+      <c r="BN15" s="38">
         <v>131</v>
       </c>
-      <c r="BO15" s="40">
+      <c r="BO15" s="38">
         <v>132</v>
       </c>
-      <c r="BP15" s="40">
+      <c r="BP15" s="38">
         <v>133</v>
       </c>
-      <c r="BQ15" s="40">
+      <c r="BQ15" s="38">
         <v>134</v>
       </c>
-      <c r="BR15" s="40">
+      <c r="BR15" s="38">
         <v>135</v>
       </c>
-      <c r="BS15" s="40">
+      <c r="BS15" s="38">
         <v>136</v>
       </c>
-      <c r="BT15" s="40">
+      <c r="BT15" s="38">
         <v>137</v>
       </c>
-      <c r="XEH15" s="24"/>
-      <c r="XEI15" s="24"/>
-      <c r="XEJ15" s="24"/>
-      <c r="XEK15" s="24"/>
-      <c r="XEL15" s="24"/>
-      <c r="XEM15" s="24"/>
-      <c r="XEN15" s="24"/>
-      <c r="XEO15" s="24"/>
-      <c r="XEP15" s="24"/>
-      <c r="XEQ15" s="24"/>
+      <c r="XEH15" s="22"/>
+      <c r="XEI15" s="22"/>
+      <c r="XEJ15" s="22"/>
+      <c r="XEK15" s="22"/>
+      <c r="XEL15" s="22"/>
+      <c r="XEM15" s="22"/>
+      <c r="XEN15" s="22"/>
+      <c r="XEO15" s="22"/>
+      <c r="XEP15" s="22"/>
+      <c r="XEQ15" s="22"/>
       <c r="XER15"/>
       <c r="XES15"/>
       <c r="XET15"/>
@@ -9681,178 +9623,178 @@
       <c r="B16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="V16" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AA16" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AB16" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AC16" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AE16" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AF16" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AI16" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AJ16" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AL16" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AN16" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AO16" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AP16" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AQ16" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AR16" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AS16" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AT16" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AU16" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AV16" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="AW16" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="AY16" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="AZ16" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BA16" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BB16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BC16" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BE16" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BF16" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BG16" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BH16" s="33" t="s">
         <v>227</v>
       </c>
       <c r="BI16" s="19" t="s">
@@ -9891,16 +9833,16 @@
       <c r="BT16" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="XEH16" s="24"/>
-      <c r="XEI16" s="24"/>
-      <c r="XEJ16" s="24"/>
-      <c r="XEK16" s="24"/>
-      <c r="XEL16" s="24"/>
-      <c r="XEM16" s="24"/>
-      <c r="XEN16" s="24"/>
-      <c r="XEO16" s="24"/>
-      <c r="XEP16" s="24"/>
-      <c r="XEQ16" s="24"/>
+      <c r="XEH16" s="22"/>
+      <c r="XEI16" s="22"/>
+      <c r="XEJ16" s="22"/>
+      <c r="XEK16" s="22"/>
+      <c r="XEL16" s="22"/>
+      <c r="XEM16" s="22"/>
+      <c r="XEN16" s="22"/>
+      <c r="XEO16" s="22"/>
+      <c r="XEP16" s="22"/>
+      <c r="XEQ16" s="22"/>
       <c r="XER16"/>
       <c r="XES16"/>
       <c r="XET16"/>
@@ -10016,7 +9958,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
@@ -10120,13 +10062,13 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="12" t="s">
         <v>322</v>
       </c>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AA3" s="22"/>
+      <c r="AA3" s="20"/>
     </row>
     <row r="4" ht="65" customHeight="1" spans="1:27">
       <c r="A4" s="14"/>
@@ -10174,14 +10116,13 @@
       <c r="U4" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="W4" s="3"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-      <c r="AA4" s="23"/>
+      <c r="AA4" s="21"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:26">
       <c r="A5" s="7" t="s">
@@ -10250,7 +10191,6 @@
       <c r="V5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -10284,8 +10224,8 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>

--- a/src/resources/excel-model/单位问卷—企业—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—企业—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="流失人才" sheetId="12" r:id="rId5"/>
     <sheet name="增量" sheetId="18" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1990,7 +1990,7 @@
 年限（年）</t>
   </si>
   <si>
-    <t>流入地</t>
+    <t>流入地（省/市)</t>
   </si>
   <si>
     <t>人才层次</t>
@@ -2077,10 +2077,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2201,9 +2201,60 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2218,7 +2269,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2232,15 +2298,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2255,39 +2315,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2301,45 +2337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,7 +2368,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,13 +2446,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2398,19 +2512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2422,103 +2524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,25 +2542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,37 +2655,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2707,11 +2677,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2731,20 +2723,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2756,10 +2756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2768,133 +2768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3436,22 +3436,22 @@
   <sheetPr/>
   <dimension ref="A3:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="10.6333333333333" style="64" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="65" customWidth="1"/>
-    <col min="6" max="10" width="10.6333333333333" style="64" customWidth="1"/>
-    <col min="11" max="11" width="37.725" style="64" customWidth="1"/>
-    <col min="12" max="12" width="31.3666666666667" style="64" customWidth="1"/>
+    <col min="1" max="4" width="10.6296296296296" style="64" customWidth="1"/>
+    <col min="5" max="5" width="10.6296296296296" style="65" customWidth="1"/>
+    <col min="6" max="10" width="10.6296296296296" style="64" customWidth="1"/>
+    <col min="11" max="11" width="37.7222222222222" style="64" customWidth="1"/>
+    <col min="12" max="12" width="31.3703703703704" style="64" customWidth="1"/>
     <col min="13" max="16373" width="8" style="64" customWidth="1"/>
     <col min="16374" max="16379" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" ht="17.4" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
       <c r="I3" s="67"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" ht="18.75" spans="1:10">
+    <row r="4" ht="17.4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3477,7 +3477,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" ht="18.75" spans="1:10">
+    <row r="5" ht="17.4" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3489,7 +3489,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" ht="18.75" spans="1:10">
+    <row r="6" ht="17.4" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3587,7 +3587,7 @@
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
     </row>
-    <row r="14" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="14" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A14" s="66"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
@@ -3605,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="15" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A15" s="66"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
@@ -3677,7 +3677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="19" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A19" s="66"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -3695,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="20" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A20" s="66"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
@@ -3713,7 +3713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="21" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A21" s="66"/>
       <c r="B21" s="66"/>
       <c r="C21" s="66"/>
@@ -3731,7 +3731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="22" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A22" s="66"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
@@ -3749,7 +3749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="23" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A23" s="66"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
@@ -3767,7 +3767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="24" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A24" s="66"/>
       <c r="B24" s="66"/>
       <c r="C24" s="66"/>
@@ -3785,7 +3785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" s="64" customFormat="1" ht="15.75" spans="1:12">
+    <row r="25" s="64" customFormat="1" ht="15.6" spans="1:12">
       <c r="A25" s="66"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66"/>
@@ -4114,17 +4114,17 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.62962962962963" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="42" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="42" customWidth="1"/>
-    <col min="6" max="110" width="2.63333333333333" style="59" customWidth="1"/>
-    <col min="111" max="127" width="2.63333333333333" style="42" customWidth="1"/>
-    <col min="128" max="136" width="2.09166666666667" style="42" customWidth="1"/>
-    <col min="137" max="16384" width="2.63333333333333" style="42"/>
+    <col min="1" max="1" width="4.26851851851852" style="42" customWidth="1"/>
+    <col min="2" max="5" width="2.62962962962963" style="42" customWidth="1"/>
+    <col min="6" max="110" width="2.62962962962963" style="59" customWidth="1"/>
+    <col min="111" max="127" width="2.62962962962963" style="42" customWidth="1"/>
+    <col min="128" max="136" width="2.09259259259259" style="42" customWidth="1"/>
+    <col min="137" max="16384" width="2.62962962962963" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" s="57" customFormat="1" ht="18.75" spans="1:110">
+    <row r="1" s="57" customFormat="1" ht="18" spans="1:110">
       <c r="A1" s="46" t="s">
         <v>26</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:64">
+    <row r="8" ht="67.2" spans="1:64">
       <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:66">
+    <row r="12" spans="1:66">
       <c r="A12" s="61"/>
       <c r="B12" s="14"/>
       <c r="C12" s="54" t="s">
@@ -5478,7 +5478,7 @@
       <c r="BM14" s="32"/>
       <c r="BN14" s="32"/>
     </row>
-    <row r="15" ht="13.5" spans="1:66">
+    <row r="15" spans="1:66">
       <c r="A15" s="62" t="s">
         <v>66</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" ht="63" spans="1:66">
+    <row r="16" ht="67.2" spans="1:66">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
@@ -5973,19 +5973,19 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="4" style="42" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="42" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="43" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="44" customWidth="1"/>
-    <col min="9" max="117" width="2.63333333333333" style="45" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="45" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="43" customWidth="1"/>
-    <col min="16382" max="16384" width="18.0916666666667" style="42"/>
+    <col min="2" max="2" width="2.62962962962963" style="42" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="43" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="44" customWidth="1"/>
+    <col min="9" max="117" width="2.62962962962963" style="45" customWidth="1"/>
+    <col min="118" max="16371" width="18.0925925925926" style="45" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0925925925926" style="43" customWidth="1"/>
+    <col min="16382" max="16384" width="18.0925925925926" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:65">
+    <row r="1" ht="17.4" spans="1:65">
       <c r="A1" s="46" t="s">
         <v>229</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:64">
+    <row r="8" ht="67.2" spans="1:64">
       <c r="A8" s="7" t="s">
         <v>233</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="XEZ15" s="42"/>
       <c r="XFA15" s="42"/>
     </row>
-    <row r="16" ht="63" spans="1:16381">
+    <row r="16" ht="67.2" spans="1:16381">
       <c r="A16" s="7" t="s">
         <v>233</v>
       </c>
@@ -7836,55 +7836,55 @@
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="22" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="23" customWidth="1"/>
-    <col min="9" max="34" width="2.63333333333333" style="24" customWidth="1"/>
-    <col min="35" max="35" width="3.25833333333333" style="24" customWidth="1"/>
-    <col min="36" max="36" width="3.59166666666667" style="24" customWidth="1"/>
-    <col min="37" max="37" width="3.475" style="24" customWidth="1"/>
-    <col min="38" max="38" width="3.7" style="24" customWidth="1"/>
-    <col min="39" max="39" width="3.15" style="24" customWidth="1"/>
-    <col min="40" max="40" width="3.8" style="24" customWidth="1"/>
-    <col min="41" max="41" width="3.48333333333333" style="24" customWidth="1"/>
-    <col min="42" max="42" width="3.25833333333333" style="24" customWidth="1"/>
-    <col min="43" max="43" width="3.15" style="24" customWidth="1"/>
-    <col min="44" max="44" width="3.48333333333333" style="24" customWidth="1"/>
-    <col min="45" max="45" width="3.25833333333333" style="24" customWidth="1"/>
-    <col min="46" max="46" width="3.15" style="24" customWidth="1"/>
-    <col min="47" max="47" width="3.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="22" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="23" customWidth="1"/>
+    <col min="9" max="34" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="35" max="35" width="3.25925925925926" style="24" customWidth="1"/>
+    <col min="36" max="36" width="3.59259259259259" style="24" customWidth="1"/>
+    <col min="37" max="37" width="3.47222222222222" style="24" customWidth="1"/>
+    <col min="38" max="38" width="3.7037037037037" style="24" customWidth="1"/>
+    <col min="39" max="39" width="3.14814814814815" style="24" customWidth="1"/>
+    <col min="40" max="40" width="3.7962962962963" style="24" customWidth="1"/>
+    <col min="41" max="41" width="3.48148148148148" style="24" customWidth="1"/>
+    <col min="42" max="42" width="3.25925925925926" style="24" customWidth="1"/>
+    <col min="43" max="43" width="3.14814814814815" style="24" customWidth="1"/>
+    <col min="44" max="44" width="3.48148148148148" style="24" customWidth="1"/>
+    <col min="45" max="45" width="3.25925925925926" style="24" customWidth="1"/>
+    <col min="46" max="46" width="3.14814814814815" style="24" customWidth="1"/>
+    <col min="47" max="47" width="3.37962962962963" style="24" customWidth="1"/>
     <col min="48" max="49" width="3.58333333333333" style="24" customWidth="1"/>
-    <col min="50" max="50" width="3.475" style="24" customWidth="1"/>
-    <col min="51" max="51" width="3.25833333333333" style="24" customWidth="1"/>
-    <col min="52" max="52" width="3.15" style="24" customWidth="1"/>
-    <col min="53" max="53" width="3.36666666666667" style="24" customWidth="1"/>
-    <col min="54" max="54" width="3.475" style="24" customWidth="1"/>
-    <col min="55" max="55" width="3.375" style="24" customWidth="1"/>
+    <col min="50" max="50" width="3.47222222222222" style="24" customWidth="1"/>
+    <col min="51" max="51" width="3.25925925925926" style="24" customWidth="1"/>
+    <col min="52" max="52" width="3.14814814814815" style="24" customWidth="1"/>
+    <col min="53" max="53" width="3.37037037037037" style="24" customWidth="1"/>
+    <col min="54" max="54" width="3.47222222222222" style="24" customWidth="1"/>
+    <col min="55" max="55" width="3.37962962962963" style="24" customWidth="1"/>
     <col min="56" max="56" width="3.58333333333333" style="24" customWidth="1"/>
-    <col min="57" max="57" width="3.475" style="24" customWidth="1"/>
-    <col min="58" max="58" width="3.375" style="24" customWidth="1"/>
-    <col min="59" max="59" width="3.69166666666667" style="24" customWidth="1"/>
-    <col min="60" max="60" width="3.7" style="24" customWidth="1"/>
-    <col min="61" max="61" width="3.90833333333333" style="24" customWidth="1"/>
-    <col min="62" max="62" width="3.475" style="24" customWidth="1"/>
-    <col min="63" max="63" width="3.15" style="24" customWidth="1"/>
+    <col min="57" max="57" width="3.47222222222222" style="24" customWidth="1"/>
+    <col min="58" max="58" width="3.37962962962963" style="24" customWidth="1"/>
+    <col min="59" max="59" width="3.69444444444444" style="24" customWidth="1"/>
+    <col min="60" max="60" width="3.7037037037037" style="24" customWidth="1"/>
+    <col min="61" max="61" width="3.90740740740741" style="24" customWidth="1"/>
+    <col min="62" max="62" width="3.47222222222222" style="24" customWidth="1"/>
+    <col min="63" max="63" width="3.14814814814815" style="24" customWidth="1"/>
     <col min="64" max="64" width="3.58333333333333" style="24" customWidth="1"/>
-    <col min="65" max="65" width="3.375" style="24" customWidth="1"/>
-    <col min="66" max="67" width="3.36666666666667" style="24" customWidth="1"/>
-    <col min="68" max="68" width="3.26666666666667" style="24" customWidth="1"/>
-    <col min="69" max="69" width="3.36666666666667" style="24" customWidth="1"/>
-    <col min="70" max="70" width="3.475" style="24" customWidth="1"/>
-    <col min="71" max="71" width="3.375" style="24" customWidth="1"/>
-    <col min="72" max="72" width="3.69166666666667" style="24" customWidth="1"/>
-    <col min="73" max="117" width="2.63333333333333" style="24" customWidth="1"/>
-    <col min="118" max="16371" width="18.0916666666667" style="24" customWidth="1"/>
-    <col min="16372" max="16381" width="18.0916666666667" style="22" customWidth="1"/>
+    <col min="65" max="65" width="3.37962962962963" style="24" customWidth="1"/>
+    <col min="66" max="67" width="3.37037037037037" style="24" customWidth="1"/>
+    <col min="68" max="68" width="3.26851851851852" style="24" customWidth="1"/>
+    <col min="69" max="69" width="3.37037037037037" style="24" customWidth="1"/>
+    <col min="70" max="70" width="3.47222222222222" style="24" customWidth="1"/>
+    <col min="71" max="71" width="3.37962962962963" style="24" customWidth="1"/>
+    <col min="72" max="72" width="3.69444444444444" style="24" customWidth="1"/>
+    <col min="73" max="117" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="118" max="16371" width="18.0925925925926" style="24" customWidth="1"/>
+    <col min="16372" max="16381" width="18.0925925925926" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:72">
+    <row r="1" ht="17.4" spans="1:72">
       <c r="A1" s="1" t="s">
         <v>234</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:69">
+    <row r="8" ht="67.2" spans="1:69">
       <c r="A8" s="7" t="s">
         <v>269</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="XEZ15"/>
       <c r="XFA15"/>
     </row>
-    <row r="16" ht="146.25" spans="1:16381">
+    <row r="16" ht="153" spans="1:16381">
       <c r="A16" s="7" t="s">
         <v>269</v>
       </c>
@@ -9957,36 +9957,36 @@
   <sheetPr/>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="1.81481481481481" defaultRowHeight="12" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="2.18333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.09166666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.1833333333333" style="9" customWidth="1"/>
-    <col min="4" max="4" width="4.45" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.90833333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.725" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.54166666666667" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.725" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.45" style="3" customWidth="1"/>
-    <col min="10" max="21" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.375" style="3" customWidth="1"/>
-    <col min="23" max="26" width="2.63333333333333" style="3" customWidth="1"/>
-    <col min="27" max="27" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="28" max="28" width="2.18333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.2666666666667" style="3" customWidth="1"/>
-    <col min="30" max="30" width="4.725" style="3" customWidth="1"/>
-    <col min="31" max="31" width="10.3666666666667" style="3" customWidth="1"/>
-    <col min="32" max="32" width="11.3666666666667" style="3" customWidth="1"/>
-    <col min="33" max="33" width="3.63333333333333" style="3" customWidth="1"/>
-    <col min="34" max="34" width="11.8166666666667" style="3" customWidth="1"/>
-    <col min="35" max="35" width="12.2666666666667" style="3" customWidth="1"/>
-    <col min="36" max="36" width="10.45" style="3" customWidth="1"/>
-    <col min="37" max="37" width="2.90833333333333" style="3" customWidth="1"/>
-    <col min="38" max="16384" width="1.81666666666667" style="3"/>
+    <col min="1" max="1" width="2.18518518518518" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.09259259259259" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.1851851851852" style="9" customWidth="1"/>
+    <col min="4" max="4" width="4.4537037037037" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.90740740740741" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.7222222222222" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.5462962962963" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.72222222222222" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.4537037037037" style="3" customWidth="1"/>
+    <col min="10" max="21" width="3.62962962962963" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.37962962962963" style="3" customWidth="1"/>
+    <col min="23" max="26" width="2.62962962962963" style="3" customWidth="1"/>
+    <col min="27" max="27" width="3.62962962962963" style="3" customWidth="1"/>
+    <col min="28" max="28" width="2.18518518518518" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.2685185185185" style="3" customWidth="1"/>
+    <col min="30" max="30" width="4.72222222222222" style="3" customWidth="1"/>
+    <col min="31" max="31" width="10.3703703703704" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.3703703703704" style="3" customWidth="1"/>
+    <col min="33" max="33" width="3.62962962962963" style="3" customWidth="1"/>
+    <col min="34" max="34" width="11.8148148148148" style="3" customWidth="1"/>
+    <col min="35" max="35" width="12.2685185185185" style="3" customWidth="1"/>
+    <col min="36" max="36" width="10.4537037037037" style="3" customWidth="1"/>
+    <col min="37" max="37" width="2.90740740740741" style="3" customWidth="1"/>
+    <col min="38" max="16384" width="1.81481481481481" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:27">
@@ -10228,17 +10228,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="12.0916666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0925925925926" customWidth="1"/>
+    <col min="4" max="4" width="15.5462962962963" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.9083333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.2666666666667" customWidth="1"/>
-    <col min="9" max="9" width="13.3666666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.9074074074074" customWidth="1"/>
+    <col min="8" max="8" width="15.2685185185185" customWidth="1"/>
+    <col min="9" max="9" width="13.3703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:10">
+    <row r="1" ht="17.4" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>339</v>
       </c>
